--- a/Code/Results/Cases/Case_0_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_2/res_line/pl_mw.xlsx
@@ -415,25 +415,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.180605083080394</v>
+        <v>0.1806050830808204</v>
       </c>
       <c r="D2">
-        <v>0.06126965397345963</v>
+        <v>0.06126965397325801</v>
       </c>
       <c r="E2">
         <v>0.5384392784092782</v>
       </c>
       <c r="F2">
-        <v>3.322270634339844</v>
+        <v>3.322270634339816</v>
       </c>
       <c r="G2">
-        <v>2.543541594190202</v>
+        <v>2.543541594190174</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4065955052772807</v>
+        <v>0.4065955052772665</v>
       </c>
       <c r="J2">
         <v>23.65093673430727</v>
@@ -453,28 +453,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.150243599293475</v>
+        <v>0.1502435992935034</v>
       </c>
       <c r="D3">
-        <v>0.04069643863540406</v>
+        <v>0.04069643863550443</v>
       </c>
       <c r="E3">
-        <v>0.4492980885723412</v>
+        <v>0.4492980885723696</v>
       </c>
       <c r="F3">
-        <v>2.593158388047783</v>
+        <v>2.593158388047769</v>
       </c>
       <c r="G3">
-        <v>1.958873665249783</v>
+        <v>1.958873665249754</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3328312502364241</v>
+        <v>0.332831250236417</v>
       </c>
       <c r="J3">
-        <v>20.05695870727652</v>
+        <v>20.05695870727641</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,19 +491,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.133026475847231</v>
+        <v>0.1330264758469184</v>
       </c>
       <c r="D4">
-        <v>0.03075106999270982</v>
+        <v>0.03075106999278887</v>
       </c>
       <c r="E4">
-        <v>0.398653338871803</v>
+        <v>0.3986533388717817</v>
       </c>
       <c r="F4">
-        <v>2.214081079123517</v>
+        <v>2.214081079123488</v>
       </c>
       <c r="G4">
-        <v>1.658063811017655</v>
+        <v>1.658063811017641</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0.2919922519029328</v>
       </c>
       <c r="J4">
-        <v>17.96283677089264</v>
+        <v>17.96283677089247</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1262787181369021</v>
+        <v>0.1262787181370584</v>
       </c>
       <c r="D5">
-        <v>0.0272008071098071</v>
+        <v>0.02720080710971029</v>
       </c>
       <c r="E5">
-        <v>0.3787816262304062</v>
+        <v>0.3787816262303849</v>
       </c>
       <c r="F5">
         <v>2.072638987390519</v>
       </c>
       <c r="G5">
-        <v>1.546527687344351</v>
+        <v>1.546527687344337</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2761852895673087</v>
+        <v>0.2761852895673158</v>
       </c>
       <c r="J5">
-        <v>17.13042889981085</v>
+        <v>17.13042889981079</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1251723561116478</v>
+        <v>0.1251723561113778</v>
       </c>
       <c r="D6">
-        <v>0.02663764339713115</v>
+        <v>0.02663764339722796</v>
       </c>
       <c r="E6">
-        <v>0.3755221196229641</v>
+        <v>0.3755221196229783</v>
       </c>
       <c r="F6">
-        <v>2.049841857550149</v>
+        <v>2.049841857550135</v>
       </c>
       <c r="G6">
         <v>1.528591076489505</v>
@@ -588,7 +588,7 @@
         <v>0.2736043901326397</v>
       </c>
       <c r="J6">
-        <v>16.99330073923369</v>
+        <v>16.99330073923363</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,28 +605,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1329344850703791</v>
+        <v>0.1329344850704928</v>
       </c>
       <c r="D7">
-        <v>0.03070134195457452</v>
+        <v>0.03070134195427876</v>
       </c>
       <c r="E7">
-        <v>0.3983825240661076</v>
+        <v>0.3983825240661005</v>
       </c>
       <c r="F7">
-        <v>2.212125342051934</v>
+        <v>2.212125342051948</v>
       </c>
       <c r="G7">
-        <v>1.656518759249749</v>
+        <v>1.656518759249778</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2917760005368635</v>
+        <v>0.2917760005368493</v>
       </c>
       <c r="J7">
-        <v>17.95153383635932</v>
+        <v>17.95153383635937</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -646,25 +646,25 @@
         <v>0.1697760282333149</v>
       </c>
       <c r="D8">
-        <v>0.05349265026964467</v>
+        <v>0.05349265026976369</v>
       </c>
       <c r="E8">
-        <v>0.5066662822830281</v>
+        <v>0.5066662822829926</v>
       </c>
       <c r="F8">
-        <v>3.05358573163609</v>
+        <v>3.053585731636005</v>
       </c>
       <c r="G8">
-        <v>2.327279932044775</v>
+        <v>2.327279932044689</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3800316946117093</v>
+        <v>0.3800316946117164</v>
       </c>
       <c r="J8">
-        <v>22.3831103592093</v>
+        <v>22.38311035920913</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -684,25 +684,25 @@
         <v>0.2601891086517867</v>
       </c>
       <c r="D9">
-        <v>0.1331373800492042</v>
+        <v>0.1331373800492957</v>
       </c>
       <c r="E9">
-        <v>0.7715913850286995</v>
+        <v>0.7715913850286924</v>
       </c>
       <c r="F9">
-        <v>5.575738703056061</v>
+        <v>5.575738703056174</v>
       </c>
       <c r="G9">
-        <v>4.383308248776359</v>
+        <v>4.383308248776416</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6105829643194483</v>
+        <v>0.610582964319434</v>
       </c>
       <c r="J9">
-        <v>32.51666451799269</v>
+        <v>32.51666451799258</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,28 +719,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3614822576534067</v>
+        <v>0.361482257653563</v>
       </c>
       <c r="D10">
-        <v>0.2623923753070674</v>
+        <v>0.2623923753070745</v>
       </c>
       <c r="E10">
-        <v>1.069401251309273</v>
+        <v>1.069401251309287</v>
       </c>
       <c r="F10">
-        <v>9.129978182911628</v>
+        <v>9.1299781829116</v>
       </c>
       <c r="G10">
-        <v>7.343398396839092</v>
+        <v>7.343398396839049</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8945837996788057</v>
+        <v>0.8945837996787844</v>
       </c>
       <c r="J10">
-        <v>42.68456455815914</v>
+        <v>42.6845645581592</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,28 +757,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4477527674678186</v>
+        <v>0.4477527674680175</v>
       </c>
       <c r="D11">
-        <v>0.4075474210800518</v>
+        <v>0.4075474210797356</v>
       </c>
       <c r="E11">
-        <v>1.327617068831216</v>
+        <v>1.327617068831259</v>
       </c>
       <c r="F11">
-        <v>12.77277429315211</v>
+        <v>12.77277429315239</v>
       </c>
       <c r="G11">
-        <v>10.42133569667106</v>
+        <v>10.42133569667143</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.163048301256687</v>
+        <v>1.163048301256744</v>
       </c>
       <c r="J11">
-        <v>50.31674761165533</v>
+        <v>50.31674761165579</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,28 +795,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4477527674678186</v>
+        <v>0.4477527674680175</v>
       </c>
       <c r="D12">
-        <v>0.4075474210800518</v>
+        <v>0.4075474210797356</v>
       </c>
       <c r="E12">
-        <v>1.327617068831216</v>
+        <v>1.327617068831259</v>
       </c>
       <c r="F12">
-        <v>12.77277429315211</v>
+        <v>12.77277429315239</v>
       </c>
       <c r="G12">
-        <v>10.42133569667106</v>
+        <v>10.42133569667143</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.163048301256687</v>
+        <v>1.163048301256744</v>
       </c>
       <c r="J12">
-        <v>50.31674761165533</v>
+        <v>50.31674761165579</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,28 +833,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4477527674678186</v>
+        <v>0.4477527674680175</v>
       </c>
       <c r="D13">
-        <v>0.4075474210800518</v>
+        <v>0.4075474210797356</v>
       </c>
       <c r="E13">
-        <v>1.327617068831216</v>
+        <v>1.327617068831259</v>
       </c>
       <c r="F13">
-        <v>12.77277429315211</v>
+        <v>12.77277429315239</v>
       </c>
       <c r="G13">
-        <v>10.42133569667106</v>
+        <v>10.42133569667143</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.163048301256687</v>
+        <v>1.163048301256744</v>
       </c>
       <c r="J13">
-        <v>50.31674761165533</v>
+        <v>50.31674761165579</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4477527674678186</v>
+        <v>0.4477527674680175</v>
       </c>
       <c r="D14">
-        <v>0.4075474210800518</v>
+        <v>0.4075474210797356</v>
       </c>
       <c r="E14">
-        <v>1.327617068831216</v>
+        <v>1.327617068831259</v>
       </c>
       <c r="F14">
-        <v>12.77277429315211</v>
+        <v>12.77277429315239</v>
       </c>
       <c r="G14">
-        <v>10.42133569667106</v>
+        <v>10.42133569667143</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.163048301256687</v>
+        <v>1.163048301256744</v>
       </c>
       <c r="J14">
-        <v>50.31674761165533</v>
+        <v>50.31674761165579</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,28 +909,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4477527674678186</v>
+        <v>0.4477527674680175</v>
       </c>
       <c r="D15">
-        <v>0.4075474210800518</v>
+        <v>0.4075474210797356</v>
       </c>
       <c r="E15">
-        <v>1.327617068831216</v>
+        <v>1.327617068831259</v>
       </c>
       <c r="F15">
-        <v>12.77277429315211</v>
+        <v>12.77277429315239</v>
       </c>
       <c r="G15">
-        <v>10.42133569667106</v>
+        <v>10.42133569667143</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.163048301256687</v>
+        <v>1.163048301256744</v>
       </c>
       <c r="J15">
-        <v>50.31674761165533</v>
+        <v>50.31674761165579</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,28 +947,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4477527674678186</v>
+        <v>0.4477527674680175</v>
       </c>
       <c r="D16">
-        <v>0.4075474210800518</v>
+        <v>0.4075474210797356</v>
       </c>
       <c r="E16">
-        <v>1.327617068831216</v>
+        <v>1.327617068831259</v>
       </c>
       <c r="F16">
-        <v>12.77277429315211</v>
+        <v>12.77277429315239</v>
       </c>
       <c r="G16">
-        <v>10.42133569667106</v>
+        <v>10.42133569667143</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.163048301256687</v>
+        <v>1.163048301256744</v>
       </c>
       <c r="J16">
-        <v>50.31674761165533</v>
+        <v>50.31674761165579</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4477527674678186</v>
+        <v>0.4477527674680175</v>
       </c>
       <c r="D17">
-        <v>0.4075474210800518</v>
+        <v>0.4075474210797356</v>
       </c>
       <c r="E17">
-        <v>1.327617068831216</v>
+        <v>1.327617068831259</v>
       </c>
       <c r="F17">
-        <v>12.77277429315211</v>
+        <v>12.77277429315239</v>
       </c>
       <c r="G17">
-        <v>10.42133569667106</v>
+        <v>10.42133569667143</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.163048301256687</v>
+        <v>1.163048301256744</v>
       </c>
       <c r="J17">
-        <v>50.31674761165533</v>
+        <v>50.31674761165579</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,28 +1023,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4477527674678186</v>
+        <v>0.4477527674680175</v>
       </c>
       <c r="D18">
-        <v>0.4075474210800518</v>
+        <v>0.4075474210797356</v>
       </c>
       <c r="E18">
-        <v>1.327617068831216</v>
+        <v>1.327617068831259</v>
       </c>
       <c r="F18">
-        <v>12.77277429315211</v>
+        <v>12.77277429315239</v>
       </c>
       <c r="G18">
-        <v>10.42133569667106</v>
+        <v>10.42133569667143</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.163048301256687</v>
+        <v>1.163048301256744</v>
       </c>
       <c r="J18">
-        <v>50.31674761165533</v>
+        <v>50.31674761165579</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,28 +1061,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4477527674678186</v>
+        <v>0.4477527674680175</v>
       </c>
       <c r="D19">
-        <v>0.4075474210800518</v>
+        <v>0.4075474210797356</v>
       </c>
       <c r="E19">
-        <v>1.327617068831216</v>
+        <v>1.327617068831259</v>
       </c>
       <c r="F19">
-        <v>12.77277429315211</v>
+        <v>12.77277429315239</v>
       </c>
       <c r="G19">
-        <v>10.42133569667106</v>
+        <v>10.42133569667143</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.163048301256687</v>
+        <v>1.163048301256744</v>
       </c>
       <c r="J19">
-        <v>50.31674761165533</v>
+        <v>50.31674761165579</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4477527674678186</v>
+        <v>0.4477527674680175</v>
       </c>
       <c r="D20">
-        <v>0.4075474210800518</v>
+        <v>0.4075474210797356</v>
       </c>
       <c r="E20">
-        <v>1.327617068831216</v>
+        <v>1.327617068831259</v>
       </c>
       <c r="F20">
-        <v>12.77277429315211</v>
+        <v>12.77277429315239</v>
       </c>
       <c r="G20">
-        <v>10.42133569667106</v>
+        <v>10.42133569667143</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.163048301256687</v>
+        <v>1.163048301256744</v>
       </c>
       <c r="J20">
-        <v>50.31674761165533</v>
+        <v>50.31674761165579</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,28 +1137,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4477527674678186</v>
+        <v>0.4477527674680175</v>
       </c>
       <c r="D21">
-        <v>0.4075474210800518</v>
+        <v>0.4075474210797356</v>
       </c>
       <c r="E21">
-        <v>1.327617068831216</v>
+        <v>1.327617068831259</v>
       </c>
       <c r="F21">
-        <v>12.77277429315211</v>
+        <v>12.77277429315239</v>
       </c>
       <c r="G21">
-        <v>10.42133569667106</v>
+        <v>10.42133569667143</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.163048301256687</v>
+        <v>1.163048301256744</v>
       </c>
       <c r="J21">
-        <v>50.31674761165533</v>
+        <v>50.31674761165579</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4477527674678186</v>
+        <v>0.4477527674680175</v>
       </c>
       <c r="D22">
-        <v>0.4075474210800518</v>
+        <v>0.4075474210797356</v>
       </c>
       <c r="E22">
-        <v>1.327617068831216</v>
+        <v>1.327617068831259</v>
       </c>
       <c r="F22">
-        <v>12.77277429315211</v>
+        <v>12.77277429315239</v>
       </c>
       <c r="G22">
-        <v>10.42133569667106</v>
+        <v>10.42133569667143</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.163048301256687</v>
+        <v>1.163048301256744</v>
       </c>
       <c r="J22">
-        <v>50.31674761165533</v>
+        <v>50.31674761165579</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,28 +1213,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4477527674678186</v>
+        <v>0.4477527674680175</v>
       </c>
       <c r="D23">
-        <v>0.4075474210800518</v>
+        <v>0.4075474210797356</v>
       </c>
       <c r="E23">
-        <v>1.327617068831216</v>
+        <v>1.327617068831259</v>
       </c>
       <c r="F23">
-        <v>12.77277429315211</v>
+        <v>12.77277429315239</v>
       </c>
       <c r="G23">
-        <v>10.42133569667106</v>
+        <v>10.42133569667143</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.163048301256687</v>
+        <v>1.163048301256744</v>
       </c>
       <c r="J23">
-        <v>50.31674761165533</v>
+        <v>50.31674761165579</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,28 +1251,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4477527674678186</v>
+        <v>0.4477527674680175</v>
       </c>
       <c r="D24">
-        <v>0.4075474210800518</v>
+        <v>0.4075474210797356</v>
       </c>
       <c r="E24">
-        <v>1.327617068831216</v>
+        <v>1.327617068831259</v>
       </c>
       <c r="F24">
-        <v>12.77277429315211</v>
+        <v>12.77277429315239</v>
       </c>
       <c r="G24">
-        <v>10.42133569667106</v>
+        <v>10.42133569667143</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.163048301256687</v>
+        <v>1.163048301256744</v>
       </c>
       <c r="J24">
-        <v>50.31674761165533</v>
+        <v>50.31674761165579</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,28 +1289,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4477527674678186</v>
+        <v>0.4477527674680175</v>
       </c>
       <c r="D25">
-        <v>0.4075474210800518</v>
+        <v>0.4075474210797356</v>
       </c>
       <c r="E25">
-        <v>1.327617068831216</v>
+        <v>1.327617068831259</v>
       </c>
       <c r="F25">
-        <v>12.77277429315211</v>
+        <v>12.77277429315239</v>
       </c>
       <c r="G25">
-        <v>10.42133569667106</v>
+        <v>10.42133569667143</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.163048301256687</v>
+        <v>1.163048301256744</v>
       </c>
       <c r="J25">
-        <v>50.31674761165533</v>
+        <v>50.31674761165579</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_2/res_line/pl_mw.xlsx
@@ -415,25 +415,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1806050830808204</v>
+        <v>0.180605083080394</v>
       </c>
       <c r="D2">
-        <v>0.06126965397325801</v>
+        <v>0.06126965397345963</v>
       </c>
       <c r="E2">
         <v>0.5384392784092782</v>
       </c>
       <c r="F2">
-        <v>3.322270634339816</v>
+        <v>3.322270634339844</v>
       </c>
       <c r="G2">
-        <v>2.543541594190174</v>
+        <v>2.543541594190202</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4065955052772665</v>
+        <v>0.4065955052772807</v>
       </c>
       <c r="J2">
         <v>23.65093673430727</v>
@@ -453,28 +453,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1502435992935034</v>
+        <v>0.150243599293475</v>
       </c>
       <c r="D3">
-        <v>0.04069643863550443</v>
+        <v>0.04069643863540406</v>
       </c>
       <c r="E3">
-        <v>0.4492980885723696</v>
+        <v>0.4492980885723412</v>
       </c>
       <c r="F3">
-        <v>2.593158388047769</v>
+        <v>2.593158388047783</v>
       </c>
       <c r="G3">
-        <v>1.958873665249754</v>
+        <v>1.958873665249783</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.332831250236417</v>
+        <v>0.3328312502364241</v>
       </c>
       <c r="J3">
-        <v>20.05695870727641</v>
+        <v>20.05695870727652</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,19 +491,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1330264758469184</v>
+        <v>0.133026475847231</v>
       </c>
       <c r="D4">
-        <v>0.03075106999278887</v>
+        <v>0.03075106999270982</v>
       </c>
       <c r="E4">
-        <v>0.3986533388717817</v>
+        <v>0.398653338871803</v>
       </c>
       <c r="F4">
-        <v>2.214081079123488</v>
+        <v>2.214081079123517</v>
       </c>
       <c r="G4">
-        <v>1.658063811017641</v>
+        <v>1.658063811017655</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0.2919922519029328</v>
       </c>
       <c r="J4">
-        <v>17.96283677089247</v>
+        <v>17.96283677089264</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1262787181370584</v>
+        <v>0.1262787181369021</v>
       </c>
       <c r="D5">
-        <v>0.02720080710971029</v>
+        <v>0.0272008071098071</v>
       </c>
       <c r="E5">
-        <v>0.3787816262303849</v>
+        <v>0.3787816262304062</v>
       </c>
       <c r="F5">
         <v>2.072638987390519</v>
       </c>
       <c r="G5">
-        <v>1.546527687344337</v>
+        <v>1.546527687344351</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2761852895673158</v>
+        <v>0.2761852895673087</v>
       </c>
       <c r="J5">
-        <v>17.13042889981079</v>
+        <v>17.13042889981085</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1251723561113778</v>
+        <v>0.1251723561116478</v>
       </c>
       <c r="D6">
-        <v>0.02663764339722796</v>
+        <v>0.02663764339713115</v>
       </c>
       <c r="E6">
-        <v>0.3755221196229783</v>
+        <v>0.3755221196229641</v>
       </c>
       <c r="F6">
-        <v>2.049841857550135</v>
+        <v>2.049841857550149</v>
       </c>
       <c r="G6">
         <v>1.528591076489505</v>
@@ -588,7 +588,7 @@
         <v>0.2736043901326397</v>
       </c>
       <c r="J6">
-        <v>16.99330073923363</v>
+        <v>16.99330073923369</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,28 +605,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1329344850704928</v>
+        <v>0.1329344850703791</v>
       </c>
       <c r="D7">
-        <v>0.03070134195427876</v>
+        <v>0.03070134195457452</v>
       </c>
       <c r="E7">
-        <v>0.3983825240661005</v>
+        <v>0.3983825240661076</v>
       </c>
       <c r="F7">
-        <v>2.212125342051948</v>
+        <v>2.212125342051934</v>
       </c>
       <c r="G7">
-        <v>1.656518759249778</v>
+        <v>1.656518759249749</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2917760005368493</v>
+        <v>0.2917760005368635</v>
       </c>
       <c r="J7">
-        <v>17.95153383635937</v>
+        <v>17.95153383635932</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -646,25 +646,25 @@
         <v>0.1697760282333149</v>
       </c>
       <c r="D8">
-        <v>0.05349265026976369</v>
+        <v>0.05349265026964467</v>
       </c>
       <c r="E8">
-        <v>0.5066662822829926</v>
+        <v>0.5066662822830281</v>
       </c>
       <c r="F8">
-        <v>3.053585731636005</v>
+        <v>3.05358573163609</v>
       </c>
       <c r="G8">
-        <v>2.327279932044689</v>
+        <v>2.327279932044775</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3800316946117164</v>
+        <v>0.3800316946117093</v>
       </c>
       <c r="J8">
-        <v>22.38311035920913</v>
+        <v>22.3831103592093</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -684,25 +684,25 @@
         <v>0.2601891086517867</v>
       </c>
       <c r="D9">
-        <v>0.1331373800492957</v>
+        <v>0.1331373800492042</v>
       </c>
       <c r="E9">
-        <v>0.7715913850286924</v>
+        <v>0.7715913850286995</v>
       </c>
       <c r="F9">
-        <v>5.575738703056174</v>
+        <v>5.575738703056061</v>
       </c>
       <c r="G9">
-        <v>4.383308248776416</v>
+        <v>4.383308248776359</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.610582964319434</v>
+        <v>0.6105829643194483</v>
       </c>
       <c r="J9">
-        <v>32.51666451799258</v>
+        <v>32.51666451799269</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,28 +719,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.361482257653563</v>
+        <v>0.3614822576534067</v>
       </c>
       <c r="D10">
-        <v>0.2623923753070745</v>
+        <v>0.2623923753070674</v>
       </c>
       <c r="E10">
-        <v>1.069401251309287</v>
+        <v>1.069401251309273</v>
       </c>
       <c r="F10">
-        <v>9.1299781829116</v>
+        <v>9.129978182911628</v>
       </c>
       <c r="G10">
-        <v>7.343398396839049</v>
+        <v>7.343398396839092</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8945837996787844</v>
+        <v>0.8945837996788057</v>
       </c>
       <c r="J10">
-        <v>42.6845645581592</v>
+        <v>42.68456455815914</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,28 +757,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4477527674680175</v>
+        <v>0.4477527674678186</v>
       </c>
       <c r="D11">
-        <v>0.4075474210797356</v>
+        <v>0.4075474210800518</v>
       </c>
       <c r="E11">
-        <v>1.327617068831259</v>
+        <v>1.327617068831216</v>
       </c>
       <c r="F11">
-        <v>12.77277429315239</v>
+        <v>12.77277429315211</v>
       </c>
       <c r="G11">
-        <v>10.42133569667143</v>
+        <v>10.42133569667106</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.163048301256744</v>
+        <v>1.163048301256687</v>
       </c>
       <c r="J11">
-        <v>50.31674761165579</v>
+        <v>50.31674761165533</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,28 +795,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4477527674680175</v>
+        <v>0.4477527674678186</v>
       </c>
       <c r="D12">
-        <v>0.4075474210797356</v>
+        <v>0.4075474210800518</v>
       </c>
       <c r="E12">
-        <v>1.327617068831259</v>
+        <v>1.327617068831216</v>
       </c>
       <c r="F12">
-        <v>12.77277429315239</v>
+        <v>12.77277429315211</v>
       </c>
       <c r="G12">
-        <v>10.42133569667143</v>
+        <v>10.42133569667106</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.163048301256744</v>
+        <v>1.163048301256687</v>
       </c>
       <c r="J12">
-        <v>50.31674761165579</v>
+        <v>50.31674761165533</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,28 +833,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4477527674680175</v>
+        <v>0.4477527674678186</v>
       </c>
       <c r="D13">
-        <v>0.4075474210797356</v>
+        <v>0.4075474210800518</v>
       </c>
       <c r="E13">
-        <v>1.327617068831259</v>
+        <v>1.327617068831216</v>
       </c>
       <c r="F13">
-        <v>12.77277429315239</v>
+        <v>12.77277429315211</v>
       </c>
       <c r="G13">
-        <v>10.42133569667143</v>
+        <v>10.42133569667106</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.163048301256744</v>
+        <v>1.163048301256687</v>
       </c>
       <c r="J13">
-        <v>50.31674761165579</v>
+        <v>50.31674761165533</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4477527674680175</v>
+        <v>0.4477527674678186</v>
       </c>
       <c r="D14">
-        <v>0.4075474210797356</v>
+        <v>0.4075474210800518</v>
       </c>
       <c r="E14">
-        <v>1.327617068831259</v>
+        <v>1.327617068831216</v>
       </c>
       <c r="F14">
-        <v>12.77277429315239</v>
+        <v>12.77277429315211</v>
       </c>
       <c r="G14">
-        <v>10.42133569667143</v>
+        <v>10.42133569667106</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.163048301256744</v>
+        <v>1.163048301256687</v>
       </c>
       <c r="J14">
-        <v>50.31674761165579</v>
+        <v>50.31674761165533</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,28 +909,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4477527674680175</v>
+        <v>0.4477527674678186</v>
       </c>
       <c r="D15">
-        <v>0.4075474210797356</v>
+        <v>0.4075474210800518</v>
       </c>
       <c r="E15">
-        <v>1.327617068831259</v>
+        <v>1.327617068831216</v>
       </c>
       <c r="F15">
-        <v>12.77277429315239</v>
+        <v>12.77277429315211</v>
       </c>
       <c r="G15">
-        <v>10.42133569667143</v>
+        <v>10.42133569667106</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.163048301256744</v>
+        <v>1.163048301256687</v>
       </c>
       <c r="J15">
-        <v>50.31674761165579</v>
+        <v>50.31674761165533</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,28 +947,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4477527674680175</v>
+        <v>0.4477527674678186</v>
       </c>
       <c r="D16">
-        <v>0.4075474210797356</v>
+        <v>0.4075474210800518</v>
       </c>
       <c r="E16">
-        <v>1.327617068831259</v>
+        <v>1.327617068831216</v>
       </c>
       <c r="F16">
-        <v>12.77277429315239</v>
+        <v>12.77277429315211</v>
       </c>
       <c r="G16">
-        <v>10.42133569667143</v>
+        <v>10.42133569667106</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.163048301256744</v>
+        <v>1.163048301256687</v>
       </c>
       <c r="J16">
-        <v>50.31674761165579</v>
+        <v>50.31674761165533</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4477527674680175</v>
+        <v>0.4477527674678186</v>
       </c>
       <c r="D17">
-        <v>0.4075474210797356</v>
+        <v>0.4075474210800518</v>
       </c>
       <c r="E17">
-        <v>1.327617068831259</v>
+        <v>1.327617068831216</v>
       </c>
       <c r="F17">
-        <v>12.77277429315239</v>
+        <v>12.77277429315211</v>
       </c>
       <c r="G17">
-        <v>10.42133569667143</v>
+        <v>10.42133569667106</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.163048301256744</v>
+        <v>1.163048301256687</v>
       </c>
       <c r="J17">
-        <v>50.31674761165579</v>
+        <v>50.31674761165533</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,28 +1023,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4477527674680175</v>
+        <v>0.4477527674678186</v>
       </c>
       <c r="D18">
-        <v>0.4075474210797356</v>
+        <v>0.4075474210800518</v>
       </c>
       <c r="E18">
-        <v>1.327617068831259</v>
+        <v>1.327617068831216</v>
       </c>
       <c r="F18">
-        <v>12.77277429315239</v>
+        <v>12.77277429315211</v>
       </c>
       <c r="G18">
-        <v>10.42133569667143</v>
+        <v>10.42133569667106</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.163048301256744</v>
+        <v>1.163048301256687</v>
       </c>
       <c r="J18">
-        <v>50.31674761165579</v>
+        <v>50.31674761165533</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,28 +1061,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4477527674680175</v>
+        <v>0.4477527674678186</v>
       </c>
       <c r="D19">
-        <v>0.4075474210797356</v>
+        <v>0.4075474210800518</v>
       </c>
       <c r="E19">
-        <v>1.327617068831259</v>
+        <v>1.327617068831216</v>
       </c>
       <c r="F19">
-        <v>12.77277429315239</v>
+        <v>12.77277429315211</v>
       </c>
       <c r="G19">
-        <v>10.42133569667143</v>
+        <v>10.42133569667106</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.163048301256744</v>
+        <v>1.163048301256687</v>
       </c>
       <c r="J19">
-        <v>50.31674761165579</v>
+        <v>50.31674761165533</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4477527674680175</v>
+        <v>0.4477527674678186</v>
       </c>
       <c r="D20">
-        <v>0.4075474210797356</v>
+        <v>0.4075474210800518</v>
       </c>
       <c r="E20">
-        <v>1.327617068831259</v>
+        <v>1.327617068831216</v>
       </c>
       <c r="F20">
-        <v>12.77277429315239</v>
+        <v>12.77277429315211</v>
       </c>
       <c r="G20">
-        <v>10.42133569667143</v>
+        <v>10.42133569667106</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.163048301256744</v>
+        <v>1.163048301256687</v>
       </c>
       <c r="J20">
-        <v>50.31674761165579</v>
+        <v>50.31674761165533</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,28 +1137,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4477527674680175</v>
+        <v>0.4477527674678186</v>
       </c>
       <c r="D21">
-        <v>0.4075474210797356</v>
+        <v>0.4075474210800518</v>
       </c>
       <c r="E21">
-        <v>1.327617068831259</v>
+        <v>1.327617068831216</v>
       </c>
       <c r="F21">
-        <v>12.77277429315239</v>
+        <v>12.77277429315211</v>
       </c>
       <c r="G21">
-        <v>10.42133569667143</v>
+        <v>10.42133569667106</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.163048301256744</v>
+        <v>1.163048301256687</v>
       </c>
       <c r="J21">
-        <v>50.31674761165579</v>
+        <v>50.31674761165533</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4477527674680175</v>
+        <v>0.4477527674678186</v>
       </c>
       <c r="D22">
-        <v>0.4075474210797356</v>
+        <v>0.4075474210800518</v>
       </c>
       <c r="E22">
-        <v>1.327617068831259</v>
+        <v>1.327617068831216</v>
       </c>
       <c r="F22">
-        <v>12.77277429315239</v>
+        <v>12.77277429315211</v>
       </c>
       <c r="G22">
-        <v>10.42133569667143</v>
+        <v>10.42133569667106</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.163048301256744</v>
+        <v>1.163048301256687</v>
       </c>
       <c r="J22">
-        <v>50.31674761165579</v>
+        <v>50.31674761165533</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,28 +1213,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4477527674680175</v>
+        <v>0.4477527674678186</v>
       </c>
       <c r="D23">
-        <v>0.4075474210797356</v>
+        <v>0.4075474210800518</v>
       </c>
       <c r="E23">
-        <v>1.327617068831259</v>
+        <v>1.327617068831216</v>
       </c>
       <c r="F23">
-        <v>12.77277429315239</v>
+        <v>12.77277429315211</v>
       </c>
       <c r="G23">
-        <v>10.42133569667143</v>
+        <v>10.42133569667106</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.163048301256744</v>
+        <v>1.163048301256687</v>
       </c>
       <c r="J23">
-        <v>50.31674761165579</v>
+        <v>50.31674761165533</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,28 +1251,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4477527674680175</v>
+        <v>0.4477527674678186</v>
       </c>
       <c r="D24">
-        <v>0.4075474210797356</v>
+        <v>0.4075474210800518</v>
       </c>
       <c r="E24">
-        <v>1.327617068831259</v>
+        <v>1.327617068831216</v>
       </c>
       <c r="F24">
-        <v>12.77277429315239</v>
+        <v>12.77277429315211</v>
       </c>
       <c r="G24">
-        <v>10.42133569667143</v>
+        <v>10.42133569667106</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.163048301256744</v>
+        <v>1.163048301256687</v>
       </c>
       <c r="J24">
-        <v>50.31674761165579</v>
+        <v>50.31674761165533</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,28 +1289,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4477527674680175</v>
+        <v>0.4477527674678186</v>
       </c>
       <c r="D25">
-        <v>0.4075474210797356</v>
+        <v>0.4075474210800518</v>
       </c>
       <c r="E25">
-        <v>1.327617068831259</v>
+        <v>1.327617068831216</v>
       </c>
       <c r="F25">
-        <v>12.77277429315239</v>
+        <v>12.77277429315211</v>
       </c>
       <c r="G25">
-        <v>10.42133569667143</v>
+        <v>10.42133569667106</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.163048301256744</v>
+        <v>1.163048301256687</v>
       </c>
       <c r="J25">
-        <v>50.31674761165579</v>
+        <v>50.31674761165533</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.180605083080394</v>
+        <v>0.1805475794898825</v>
       </c>
       <c r="D2">
-        <v>0.06126965397345963</v>
+        <v>0.06113146745021147</v>
       </c>
       <c r="E2">
-        <v>0.5384392784092782</v>
+        <v>0.5384152890725602</v>
       </c>
       <c r="F2">
-        <v>3.322270634339844</v>
+        <v>3.314825893914929</v>
       </c>
       <c r="G2">
-        <v>2.543541594190202</v>
+        <v>0.8907000905104638</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.64845244074607</v>
       </c>
       <c r="I2">
-        <v>0.4065955052772807</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>23.65093673430727</v>
+        <v>0.4063081428921791</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>23.6458289551843</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.150243599293475</v>
+        <v>0.1502076483754422</v>
       </c>
       <c r="D3">
-        <v>0.04069643863540406</v>
+        <v>0.04062779649995463</v>
       </c>
       <c r="E3">
-        <v>0.4492980885723412</v>
+        <v>0.4493118354698638</v>
       </c>
       <c r="F3">
-        <v>2.593158388047783</v>
+        <v>2.58760171200116</v>
       </c>
       <c r="G3">
-        <v>1.958873665249783</v>
+        <v>0.6854352678996349</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.271273572043185</v>
       </c>
       <c r="I3">
-        <v>0.3328312502364241</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>20.05695870727652</v>
+        <v>0.332626862632786</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>20.05371869789337</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.133026475847231</v>
+        <v>0.1330000567690774</v>
       </c>
       <c r="D4">
-        <v>0.03075106999270982</v>
+        <v>0.03071281244445423</v>
       </c>
       <c r="E4">
-        <v>0.398653338871803</v>
+        <v>0.3986809735264814</v>
       </c>
       <c r="F4">
-        <v>2.214081079123517</v>
+        <v>2.209441317985508</v>
       </c>
       <c r="G4">
-        <v>1.658063811017655</v>
+        <v>0.578934588635704</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.078070172948983</v>
       </c>
       <c r="I4">
-        <v>0.2919922519029328</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>17.96283677089264</v>
+        <v>0.2918265152349448</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.96043868072996</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1262787181369021</v>
+        <v>0.1262555673804684</v>
       </c>
       <c r="D5">
-        <v>0.0272008071098071</v>
+        <v>0.02717277501283988</v>
       </c>
       <c r="E5">
-        <v>0.3787816262304062</v>
+        <v>0.3788134100936063</v>
       </c>
       <c r="F5">
-        <v>2.072638987390519</v>
+        <v>2.068331174085074</v>
       </c>
       <c r="G5">
-        <v>1.546527687344351</v>
+        <v>0.5392360859674312</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.00663760074255</v>
       </c>
       <c r="I5">
-        <v>0.2761852895673087</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>17.13042889981085</v>
+        <v>0.276033263665731</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.12832229745396</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1251723561116478</v>
+        <v>0.1251497174479113</v>
       </c>
       <c r="D6">
-        <v>0.02663764339713115</v>
+        <v>0.02661119921283106</v>
       </c>
       <c r="E6">
-        <v>0.3755221196229641</v>
+        <v>0.3755545182233604</v>
       </c>
       <c r="F6">
-        <v>2.049841857550149</v>
+        <v>2.045587055526767</v>
       </c>
       <c r="G6">
-        <v>1.528591076489505</v>
+        <v>0.5328395846082401</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.9951624258717544</v>
       </c>
       <c r="I6">
-        <v>0.2736043901326397</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>16.99330073923369</v>
+        <v>0.2734545396392605</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.99123995200375</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1329344850703791</v>
+        <v>0.1329081122517977</v>
       </c>
       <c r="D7">
-        <v>0.03070134195457452</v>
+        <v>0.03066323008784799</v>
       </c>
       <c r="E7">
-        <v>0.3983825240661076</v>
+        <v>0.3984102199876176</v>
       </c>
       <c r="F7">
-        <v>2.212125342051934</v>
+        <v>2.207490207152944</v>
       </c>
       <c r="G7">
-        <v>1.656518759249749</v>
+        <v>0.5783855283962964</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.077079808340727</v>
       </c>
       <c r="I7">
-        <v>0.2917760005368635</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>17.95153383635932</v>
+        <v>0.2916104559966826</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>17.94913986115898</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1697760282333149</v>
+        <v>0.1697269702708155</v>
       </c>
       <c r="D8">
-        <v>0.05349265026964467</v>
+        <v>0.05338172034177191</v>
       </c>
       <c r="E8">
-        <v>0.5066662822830281</v>
+        <v>0.5066578822023544</v>
       </c>
       <c r="F8">
-        <v>3.05358573163609</v>
+        <v>3.046857154230537</v>
       </c>
       <c r="G8">
-        <v>2.327279932044775</v>
+        <v>0.8149952426311273</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.508731609084847</v>
       </c>
       <c r="I8">
-        <v>0.3800316946117093</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>22.3831103592093</v>
+        <v>0.3797763186949155</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>22.37872932429059</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2601891086517867</v>
+        <v>0.2600339617302865</v>
       </c>
       <c r="D9">
-        <v>0.1331373800492042</v>
+        <v>0.1326953084841591</v>
       </c>
       <c r="E9">
-        <v>0.7715913850286995</v>
+        <v>0.7713508659756698</v>
       </c>
       <c r="F9">
-        <v>5.575738703056061</v>
+        <v>5.561086834903278</v>
       </c>
       <c r="G9">
-        <v>4.383308248776359</v>
+        <v>1.528069589184909</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.842840928907989</v>
       </c>
       <c r="I9">
-        <v>0.6105829643194483</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>32.51666451799269</v>
+        <v>0.6099447848326065</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>32.50345893176149</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3614822576534067</v>
+        <v>0.3610117444536911</v>
       </c>
       <c r="D10">
-        <v>0.2623923753070674</v>
+        <v>0.2610776187690576</v>
       </c>
       <c r="E10">
-        <v>1.069401251309273</v>
+        <v>1.068315530097621</v>
       </c>
       <c r="F10">
-        <v>9.129978182911628</v>
+        <v>9.096023792524477</v>
       </c>
       <c r="G10">
-        <v>7.343398396839092</v>
+        <v>2.53889050737574</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4.77273903233268</v>
       </c>
       <c r="I10">
-        <v>0.8945837996788057</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>42.68456455815914</v>
+        <v>0.8928446266957621</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>42.64683632034212</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4477527674678186</v>
+        <v>0.4462757198103589</v>
       </c>
       <c r="D11">
-        <v>0.4075474210800518</v>
+        <v>0.4037822043942239</v>
       </c>
       <c r="E11">
-        <v>1.327617068831216</v>
+        <v>1.323513300287473</v>
       </c>
       <c r="F11">
-        <v>12.77277429315211</v>
+        <v>12.68384387189542</v>
       </c>
       <c r="G11">
-        <v>10.42133569667106</v>
+        <v>3.571833238492701</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>6.767791488572357</v>
       </c>
       <c r="I11">
-        <v>1.163048301256687</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>50.31674761165533</v>
+        <v>1.15771735578052</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>50.20497012357527</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4477527674678186</v>
+        <v>0.4462757198103589</v>
       </c>
       <c r="D12">
-        <v>0.4075474210800518</v>
+        <v>0.4037822043942239</v>
       </c>
       <c r="E12">
-        <v>1.327617068831216</v>
+        <v>1.323513300287473</v>
       </c>
       <c r="F12">
-        <v>12.77277429315211</v>
+        <v>12.68384387189542</v>
       </c>
       <c r="G12">
-        <v>10.42133569667106</v>
+        <v>3.571833238492701</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>6.767791488572357</v>
       </c>
       <c r="I12">
-        <v>1.163048301256687</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>50.31674761165533</v>
+        <v>1.15771735578052</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>50.20497012357527</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4477527674678186</v>
+        <v>0.4462757198103589</v>
       </c>
       <c r="D13">
-        <v>0.4075474210800518</v>
+        <v>0.4037822043942239</v>
       </c>
       <c r="E13">
-        <v>1.327617068831216</v>
+        <v>1.323513300287473</v>
       </c>
       <c r="F13">
-        <v>12.77277429315211</v>
+        <v>12.68384387189542</v>
       </c>
       <c r="G13">
-        <v>10.42133569667106</v>
+        <v>3.571833238492701</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.767791488572357</v>
       </c>
       <c r="I13">
-        <v>1.163048301256687</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>50.31674761165533</v>
+        <v>1.15771735578052</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>50.20497012357527</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4477527674678186</v>
+        <v>0.4462757198103589</v>
       </c>
       <c r="D14">
-        <v>0.4075474210800518</v>
+        <v>0.4037822043942239</v>
       </c>
       <c r="E14">
-        <v>1.327617068831216</v>
+        <v>1.323513300287473</v>
       </c>
       <c r="F14">
-        <v>12.77277429315211</v>
+        <v>12.68384387189542</v>
       </c>
       <c r="G14">
-        <v>10.42133569667106</v>
+        <v>3.571833238492701</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.767791488572357</v>
       </c>
       <c r="I14">
-        <v>1.163048301256687</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>50.31674761165533</v>
+        <v>1.15771735578052</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>50.20497012357527</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4477527674678186</v>
+        <v>0.4462757198103589</v>
       </c>
       <c r="D15">
-        <v>0.4075474210800518</v>
+        <v>0.4037822043942239</v>
       </c>
       <c r="E15">
-        <v>1.327617068831216</v>
+        <v>1.323513300287473</v>
       </c>
       <c r="F15">
-        <v>12.77277429315211</v>
+        <v>12.68384387189542</v>
       </c>
       <c r="G15">
-        <v>10.42133569667106</v>
+        <v>3.571833238492701</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.767791488572357</v>
       </c>
       <c r="I15">
-        <v>1.163048301256687</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>50.31674761165533</v>
+        <v>1.15771735578052</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>50.20497012357527</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4477527674678186</v>
+        <v>0.4462757198103589</v>
       </c>
       <c r="D16">
-        <v>0.4075474210800518</v>
+        <v>0.4037822043942239</v>
       </c>
       <c r="E16">
-        <v>1.327617068831216</v>
+        <v>1.323513300287473</v>
       </c>
       <c r="F16">
-        <v>12.77277429315211</v>
+        <v>12.68384387189542</v>
       </c>
       <c r="G16">
-        <v>10.42133569667106</v>
+        <v>3.571833238492701</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.767791488572357</v>
       </c>
       <c r="I16">
-        <v>1.163048301256687</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>50.31674761165533</v>
+        <v>1.15771735578052</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>50.20497012357527</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4477527674678186</v>
+        <v>0.4462757198103589</v>
       </c>
       <c r="D17">
-        <v>0.4075474210800518</v>
+        <v>0.4037822043942239</v>
       </c>
       <c r="E17">
-        <v>1.327617068831216</v>
+        <v>1.323513300287473</v>
       </c>
       <c r="F17">
-        <v>12.77277429315211</v>
+        <v>12.68384387189542</v>
       </c>
       <c r="G17">
-        <v>10.42133569667106</v>
+        <v>3.571833238492701</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.767791488572357</v>
       </c>
       <c r="I17">
-        <v>1.163048301256687</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>50.31674761165533</v>
+        <v>1.15771735578052</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>50.20497012357527</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4477527674678186</v>
+        <v>0.4462757198103589</v>
       </c>
       <c r="D18">
-        <v>0.4075474210800518</v>
+        <v>0.4037822043942239</v>
       </c>
       <c r="E18">
-        <v>1.327617068831216</v>
+        <v>1.323513300287473</v>
       </c>
       <c r="F18">
-        <v>12.77277429315211</v>
+        <v>12.68384387189542</v>
       </c>
       <c r="G18">
-        <v>10.42133569667106</v>
+        <v>3.571833238492701</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>6.767791488572357</v>
       </c>
       <c r="I18">
-        <v>1.163048301256687</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>50.31674761165533</v>
+        <v>1.15771735578052</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>50.20497012357527</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4477527674678186</v>
+        <v>0.4462757198103589</v>
       </c>
       <c r="D19">
-        <v>0.4075474210800518</v>
+        <v>0.4037822043942239</v>
       </c>
       <c r="E19">
-        <v>1.327617068831216</v>
+        <v>1.323513300287473</v>
       </c>
       <c r="F19">
-        <v>12.77277429315211</v>
+        <v>12.68384387189542</v>
       </c>
       <c r="G19">
-        <v>10.42133569667106</v>
+        <v>3.571833238492701</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>6.767791488572357</v>
       </c>
       <c r="I19">
-        <v>1.163048301256687</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>50.31674761165533</v>
+        <v>1.15771735578052</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>50.20497012357527</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4477527674678186</v>
+        <v>0.4462757198103589</v>
       </c>
       <c r="D20">
-        <v>0.4075474210800518</v>
+        <v>0.4037822043942239</v>
       </c>
       <c r="E20">
-        <v>1.327617068831216</v>
+        <v>1.323513300287473</v>
       </c>
       <c r="F20">
-        <v>12.77277429315211</v>
+        <v>12.68384387189542</v>
       </c>
       <c r="G20">
-        <v>10.42133569667106</v>
+        <v>3.571833238492701</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>6.767791488572357</v>
       </c>
       <c r="I20">
-        <v>1.163048301256687</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>50.31674761165533</v>
+        <v>1.15771735578052</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>50.20497012357527</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4477527674678186</v>
+        <v>0.4462757198103589</v>
       </c>
       <c r="D21">
-        <v>0.4075474210800518</v>
+        <v>0.4037822043942239</v>
       </c>
       <c r="E21">
-        <v>1.327617068831216</v>
+        <v>1.323513300287473</v>
       </c>
       <c r="F21">
-        <v>12.77277429315211</v>
+        <v>12.68384387189542</v>
       </c>
       <c r="G21">
-        <v>10.42133569667106</v>
+        <v>3.571833238492701</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>6.767791488572357</v>
       </c>
       <c r="I21">
-        <v>1.163048301256687</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>50.31674761165533</v>
+        <v>1.15771735578052</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>50.20497012357527</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4477527674678186</v>
+        <v>0.4462757198103589</v>
       </c>
       <c r="D22">
-        <v>0.4075474210800518</v>
+        <v>0.4037822043942239</v>
       </c>
       <c r="E22">
-        <v>1.327617068831216</v>
+        <v>1.323513300287473</v>
       </c>
       <c r="F22">
-        <v>12.77277429315211</v>
+        <v>12.68384387189542</v>
       </c>
       <c r="G22">
-        <v>10.42133569667106</v>
+        <v>3.571833238492701</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>6.767791488572357</v>
       </c>
       <c r="I22">
-        <v>1.163048301256687</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>50.31674761165533</v>
+        <v>1.15771735578052</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>50.20497012357527</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4477527674678186</v>
+        <v>0.4462757198103589</v>
       </c>
       <c r="D23">
-        <v>0.4075474210800518</v>
+        <v>0.4037822043942239</v>
       </c>
       <c r="E23">
-        <v>1.327617068831216</v>
+        <v>1.323513300287473</v>
       </c>
       <c r="F23">
-        <v>12.77277429315211</v>
+        <v>12.68384387189542</v>
       </c>
       <c r="G23">
-        <v>10.42133569667106</v>
+        <v>3.571833238492701</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>6.767791488572357</v>
       </c>
       <c r="I23">
-        <v>1.163048301256687</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>50.31674761165533</v>
+        <v>1.15771735578052</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>50.20497012357527</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4477527674678186</v>
+        <v>0.4462757198103589</v>
       </c>
       <c r="D24">
-        <v>0.4075474210800518</v>
+        <v>0.4037822043942239</v>
       </c>
       <c r="E24">
-        <v>1.327617068831216</v>
+        <v>1.323513300287473</v>
       </c>
       <c r="F24">
-        <v>12.77277429315211</v>
+        <v>12.68384387189542</v>
       </c>
       <c r="G24">
-        <v>10.42133569667106</v>
+        <v>3.571833238492701</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>6.767791488572357</v>
       </c>
       <c r="I24">
-        <v>1.163048301256687</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>50.31674761165533</v>
+        <v>1.15771735578052</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>50.20497012357527</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4477527674678186</v>
+        <v>0.4462757198103589</v>
       </c>
       <c r="D25">
-        <v>0.4075474210800518</v>
+        <v>0.4037822043942239</v>
       </c>
       <c r="E25">
-        <v>1.327617068831216</v>
+        <v>1.323513300287473</v>
       </c>
       <c r="F25">
-        <v>12.77277429315211</v>
+        <v>12.68384387189542</v>
       </c>
       <c r="G25">
-        <v>10.42133569667106</v>
+        <v>3.571833238492701</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>6.767791488572357</v>
       </c>
       <c r="I25">
-        <v>1.163048301256687</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>50.31674761165533</v>
+        <v>1.15771735578052</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>50.20497012357527</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1805475794898825</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06113146745021147</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5384152890725602</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>3.314825893914929</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.8907000905104638</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.64845244074607</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4063081428921791</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>23.6458289551843</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,8 +456,14 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1502076483754422</v>
+        <v>0.0184175782476359</v>
       </c>
       <c r="D3">
-        <v>0.04062779649995463</v>
+        <v>0.7762723984072295</v>
       </c>
       <c r="E3">
-        <v>0.4493118354698638</v>
+        <v>0.2525798675023054</v>
       </c>
       <c r="F3">
-        <v>2.58760171200116</v>
+        <v>7.879482462752037</v>
       </c>
       <c r="G3">
-        <v>0.6854352678996349</v>
+        <v>0.0006624120377862269</v>
       </c>
       <c r="H3">
-        <v>1.271273572043185</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.332626862632786</v>
+        <v>0.106407555450879</v>
       </c>
       <c r="K3">
-        <v>20.05371869789337</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.7358944783553767</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>30.19042057523711</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1330000567690774</v>
+        <v>0.01932702486119808</v>
       </c>
       <c r="D4">
-        <v>0.03071281244445423</v>
+        <v>0.6305410412655306</v>
       </c>
       <c r="E4">
-        <v>0.3986809735264814</v>
+        <v>0.2156073913805727</v>
       </c>
       <c r="F4">
-        <v>2.209441317985508</v>
+        <v>6.592792955670575</v>
       </c>
       <c r="G4">
-        <v>0.578934588635704</v>
+        <v>0.0007204171978628957</v>
       </c>
       <c r="H4">
-        <v>1.078070172948983</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2918265152349448</v>
+        <v>0.0861737302064185</v>
       </c>
       <c r="K4">
-        <v>17.96043868072996</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.6273478087970261</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>26.10794545520093</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1262555673804684</v>
+        <v>0.01976931821632277</v>
       </c>
       <c r="D5">
-        <v>0.02717277501283988</v>
+        <v>0.584400562665877</v>
       </c>
       <c r="E5">
-        <v>0.3788134100936063</v>
+        <v>0.2024917841566989</v>
       </c>
       <c r="F5">
-        <v>2.068331174085074</v>
+        <v>6.235435300742893</v>
       </c>
       <c r="G5">
-        <v>0.5392360859674312</v>
+        <v>0.0007411973429216514</v>
       </c>
       <c r="H5">
-        <v>1.00663760074255</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.276033263665731</v>
+        <v>0.08075969421662421</v>
       </c>
       <c r="K5">
-        <v>17.12832229745396</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.5890235596467761</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>24.65826099461532</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1251497174479113</v>
+        <v>0.01984598945404059</v>
       </c>
       <c r="D6">
-        <v>0.02661119921283106</v>
+        <v>0.5772752174374602</v>
       </c>
       <c r="E6">
-        <v>0.3755545182233604</v>
+        <v>0.2003939390960383</v>
       </c>
       <c r="F6">
-        <v>2.045587055526767</v>
+        <v>6.182892684065479</v>
       </c>
       <c r="G6">
-        <v>0.5328395846082401</v>
+        <v>0.0007445352365311468</v>
       </c>
       <c r="H6">
-        <v>0.9951624258717544</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2734545396392605</v>
+        <v>0.07997614099087258</v>
       </c>
       <c r="K6">
-        <v>16.99123995200375</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.5829019068220447</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>24.42633917251914</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1329081122517977</v>
+        <v>0.0193327552805691</v>
       </c>
       <c r="D7">
-        <v>0.03066323008784799</v>
+        <v>0.6298785857467522</v>
       </c>
       <c r="E7">
-        <v>0.3984102199876176</v>
+        <v>0.215424531850708</v>
       </c>
       <c r="F7">
-        <v>2.207490207152944</v>
+        <v>6.587465097501791</v>
       </c>
       <c r="G7">
-        <v>0.5783855283962964</v>
+        <v>0.0007207059665297974</v>
       </c>
       <c r="H7">
-        <v>1.077079808340727</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2916104559966826</v>
+        <v>0.08609207959313636</v>
       </c>
       <c r="K7">
-        <v>17.94913986115898</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.6268128618661706</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>26.08773759138364</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1697269702708155</v>
+        <v>0.01797350268771325</v>
       </c>
       <c r="D8">
-        <v>0.05338172034177191</v>
+        <v>1.049575973236472</v>
       </c>
       <c r="E8">
-        <v>0.5066578822023544</v>
+        <v>0.3087655323353218</v>
       </c>
       <c r="F8">
-        <v>3.046857154230537</v>
+        <v>10.72982501432679</v>
       </c>
       <c r="G8">
-        <v>0.8149952426311273</v>
+        <v>0.0005745654017376179</v>
       </c>
       <c r="H8">
-        <v>1.508731609084847</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3797763186949155</v>
+        <v>0.1527609901988924</v>
       </c>
       <c r="K8">
-        <v>22.37872932429059</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.9025773858795674</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>36.37072852406675</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2600339617302865</v>
+        <v>0.01797350268771325</v>
       </c>
       <c r="D9">
-        <v>0.1326953084841591</v>
+        <v>1.049575973236472</v>
       </c>
       <c r="E9">
-        <v>0.7713508659756698</v>
+        <v>0.3087655323353218</v>
       </c>
       <c r="F9">
-        <v>5.561086834903278</v>
+        <v>10.72982501432679</v>
       </c>
       <c r="G9">
-        <v>1.528069589184909</v>
+        <v>0.0005745654017376179</v>
       </c>
       <c r="H9">
-        <v>2.842840928907989</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6099447848326065</v>
+        <v>0.1527609901988924</v>
       </c>
       <c r="K9">
-        <v>32.50345893176149</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.9025773858795674</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>36.37072852406675</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3610117444536911</v>
+        <v>0.01797350268771325</v>
       </c>
       <c r="D10">
-        <v>0.2610776187690576</v>
+        <v>1.049575973236472</v>
       </c>
       <c r="E10">
-        <v>1.068315530097621</v>
+        <v>0.3087655323353218</v>
       </c>
       <c r="F10">
-        <v>9.096023792524477</v>
+        <v>10.72982501432679</v>
       </c>
       <c r="G10">
-        <v>2.53889050737574</v>
+        <v>0.0005745654017376179</v>
       </c>
       <c r="H10">
-        <v>4.77273903233268</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.8928446266957621</v>
+        <v>0.1527609901988924</v>
       </c>
       <c r="K10">
-        <v>42.64683632034212</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.9025773858795674</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>36.37072852406675</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4462757198103589</v>
+        <v>0.01797350268771325</v>
       </c>
       <c r="D11">
-        <v>0.4037822043942239</v>
+        <v>1.049575973236472</v>
       </c>
       <c r="E11">
-        <v>1.323513300287473</v>
+        <v>0.3087655323353218</v>
       </c>
       <c r="F11">
-        <v>12.68384387189542</v>
+        <v>10.72982501432679</v>
       </c>
       <c r="G11">
-        <v>3.571833238492701</v>
+        <v>0.0005745654017376179</v>
       </c>
       <c r="H11">
-        <v>6.767791488572357</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.15771735578052</v>
+        <v>0.1527609901988924</v>
       </c>
       <c r="K11">
-        <v>50.20497012357527</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.9025773858795674</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>36.37072852406675</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4462757198103589</v>
+        <v>0.01797350268771325</v>
       </c>
       <c r="D12">
-        <v>0.4037822043942239</v>
+        <v>1.049575973236472</v>
       </c>
       <c r="E12">
-        <v>1.323513300287473</v>
+        <v>0.3087655323353218</v>
       </c>
       <c r="F12">
-        <v>12.68384387189542</v>
+        <v>10.72982501432679</v>
       </c>
       <c r="G12">
-        <v>3.571833238492701</v>
+        <v>0.0005745654017376179</v>
       </c>
       <c r="H12">
-        <v>6.767791488572357</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.15771735578052</v>
+        <v>0.1527609901988924</v>
       </c>
       <c r="K12">
-        <v>50.20497012357527</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.9025773858795674</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>36.37072852406675</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4462757198103589</v>
+        <v>0.01797350268771325</v>
       </c>
       <c r="D13">
-        <v>0.4037822043942239</v>
+        <v>1.049575973236472</v>
       </c>
       <c r="E13">
-        <v>1.323513300287473</v>
+        <v>0.3087655323353218</v>
       </c>
       <c r="F13">
-        <v>12.68384387189542</v>
+        <v>10.72982501432679</v>
       </c>
       <c r="G13">
-        <v>3.571833238492701</v>
+        <v>0.0005745654017376179</v>
       </c>
       <c r="H13">
-        <v>6.767791488572357</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.15771735578052</v>
+        <v>0.1527609901988924</v>
       </c>
       <c r="K13">
-        <v>50.20497012357527</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.9025773858795674</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>36.37072852406675</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4462757198103589</v>
+        <v>0.01797350268771325</v>
       </c>
       <c r="D14">
-        <v>0.4037822043942239</v>
+        <v>1.049575973236472</v>
       </c>
       <c r="E14">
-        <v>1.323513300287473</v>
+        <v>0.3087655323353218</v>
       </c>
       <c r="F14">
-        <v>12.68384387189542</v>
+        <v>10.72982501432679</v>
       </c>
       <c r="G14">
-        <v>3.571833238492701</v>
+        <v>0.0005745654017376179</v>
       </c>
       <c r="H14">
-        <v>6.767791488572357</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.15771735578052</v>
+        <v>0.1527609901988924</v>
       </c>
       <c r="K14">
-        <v>50.20497012357527</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.9025773858795674</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>36.37072852406675</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4462757198103589</v>
+        <v>0.01797350268771325</v>
       </c>
       <c r="D15">
-        <v>0.4037822043942239</v>
+        <v>1.049575973236472</v>
       </c>
       <c r="E15">
-        <v>1.323513300287473</v>
+        <v>0.3087655323353218</v>
       </c>
       <c r="F15">
-        <v>12.68384387189542</v>
+        <v>10.72982501432679</v>
       </c>
       <c r="G15">
-        <v>3.571833238492701</v>
+        <v>0.0005745654017376179</v>
       </c>
       <c r="H15">
-        <v>6.767791488572357</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.15771735578052</v>
+        <v>0.1527609901988924</v>
       </c>
       <c r="K15">
-        <v>50.20497012357527</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.9025773858795674</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>36.37072852406675</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4462757198103589</v>
+        <v>0.01797350268771325</v>
       </c>
       <c r="D16">
-        <v>0.4037822043942239</v>
+        <v>1.049575973236472</v>
       </c>
       <c r="E16">
-        <v>1.323513300287473</v>
+        <v>0.3087655323353218</v>
       </c>
       <c r="F16">
-        <v>12.68384387189542</v>
+        <v>10.72982501432679</v>
       </c>
       <c r="G16">
-        <v>3.571833238492701</v>
+        <v>0.0005745654017376179</v>
       </c>
       <c r="H16">
-        <v>6.767791488572357</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.15771735578052</v>
+        <v>0.1527609901988924</v>
       </c>
       <c r="K16">
-        <v>50.20497012357527</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.9025773858795674</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>36.37072852406675</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4462757198103589</v>
+        <v>0.01797350268771325</v>
       </c>
       <c r="D17">
-        <v>0.4037822043942239</v>
+        <v>1.049575973236472</v>
       </c>
       <c r="E17">
-        <v>1.323513300287473</v>
+        <v>0.3087655323353218</v>
       </c>
       <c r="F17">
-        <v>12.68384387189542</v>
+        <v>10.72982501432679</v>
       </c>
       <c r="G17">
-        <v>3.571833238492701</v>
+        <v>0.0005745654017376179</v>
       </c>
       <c r="H17">
-        <v>6.767791488572357</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.15771735578052</v>
+        <v>0.1527609901988924</v>
       </c>
       <c r="K17">
-        <v>50.20497012357527</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.9025773858795674</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>36.37072852406675</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4462757198103589</v>
+        <v>0.01797350268771325</v>
       </c>
       <c r="D18">
-        <v>0.4037822043942239</v>
+        <v>1.049575973236472</v>
       </c>
       <c r="E18">
-        <v>1.323513300287473</v>
+        <v>0.3087655323353218</v>
       </c>
       <c r="F18">
-        <v>12.68384387189542</v>
+        <v>10.72982501432679</v>
       </c>
       <c r="G18">
-        <v>3.571833238492701</v>
+        <v>0.0005745654017376179</v>
       </c>
       <c r="H18">
-        <v>6.767791488572357</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.15771735578052</v>
+        <v>0.1527609901988924</v>
       </c>
       <c r="K18">
-        <v>50.20497012357527</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.9025773858795674</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>36.37072852406675</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4462757198103589</v>
+        <v>0.01797350268771325</v>
       </c>
       <c r="D19">
-        <v>0.4037822043942239</v>
+        <v>1.049575973236472</v>
       </c>
       <c r="E19">
-        <v>1.323513300287473</v>
+        <v>0.3087655323353218</v>
       </c>
       <c r="F19">
-        <v>12.68384387189542</v>
+        <v>10.72982501432679</v>
       </c>
       <c r="G19">
-        <v>3.571833238492701</v>
+        <v>0.0005745654017376179</v>
       </c>
       <c r="H19">
-        <v>6.767791488572357</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.15771735578052</v>
+        <v>0.1527609901988924</v>
       </c>
       <c r="K19">
-        <v>50.20497012357527</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.9025773858795674</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>36.37072852406675</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4462757198103589</v>
+        <v>0.01797350268771325</v>
       </c>
       <c r="D20">
-        <v>0.4037822043942239</v>
+        <v>1.049575973236472</v>
       </c>
       <c r="E20">
-        <v>1.323513300287473</v>
+        <v>0.3087655323353218</v>
       </c>
       <c r="F20">
-        <v>12.68384387189542</v>
+        <v>10.72982501432679</v>
       </c>
       <c r="G20">
-        <v>3.571833238492701</v>
+        <v>0.0005745654017376179</v>
       </c>
       <c r="H20">
-        <v>6.767791488572357</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.15771735578052</v>
+        <v>0.1527609901988924</v>
       </c>
       <c r="K20">
-        <v>50.20497012357527</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.9025773858795674</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>36.37072852406675</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4462757198103589</v>
+        <v>0.01797350268771325</v>
       </c>
       <c r="D21">
-        <v>0.4037822043942239</v>
+        <v>1.049575973236472</v>
       </c>
       <c r="E21">
-        <v>1.323513300287473</v>
+        <v>0.3087655323353218</v>
       </c>
       <c r="F21">
-        <v>12.68384387189542</v>
+        <v>10.72982501432679</v>
       </c>
       <c r="G21">
-        <v>3.571833238492701</v>
+        <v>0.0005745654017376179</v>
       </c>
       <c r="H21">
-        <v>6.767791488572357</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.15771735578052</v>
+        <v>0.1527609901988924</v>
       </c>
       <c r="K21">
-        <v>50.20497012357527</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.9025773858795674</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>36.37072852406675</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4462757198103589</v>
+        <v>0.01797350268771325</v>
       </c>
       <c r="D22">
-        <v>0.4037822043942239</v>
+        <v>1.049575973236472</v>
       </c>
       <c r="E22">
-        <v>1.323513300287473</v>
+        <v>0.3087655323353218</v>
       </c>
       <c r="F22">
-        <v>12.68384387189542</v>
+        <v>10.72982501432679</v>
       </c>
       <c r="G22">
-        <v>3.571833238492701</v>
+        <v>0.0005745654017376179</v>
       </c>
       <c r="H22">
-        <v>6.767791488572357</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.15771735578052</v>
+        <v>0.1527609901988924</v>
       </c>
       <c r="K22">
-        <v>50.20497012357527</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.9025773858795674</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>36.37072852406675</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4462757198103589</v>
+        <v>0.01797350268771325</v>
       </c>
       <c r="D23">
-        <v>0.4037822043942239</v>
+        <v>1.049575973236472</v>
       </c>
       <c r="E23">
-        <v>1.323513300287473</v>
+        <v>0.3087655323353218</v>
       </c>
       <c r="F23">
-        <v>12.68384387189542</v>
+        <v>10.72982501432679</v>
       </c>
       <c r="G23">
-        <v>3.571833238492701</v>
+        <v>0.0005745654017376179</v>
       </c>
       <c r="H23">
-        <v>6.767791488572357</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.15771735578052</v>
+        <v>0.1527609901988924</v>
       </c>
       <c r="K23">
-        <v>50.20497012357527</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.9025773858795674</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>36.37072852406675</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4462757198103589</v>
+        <v>0.01797350268771325</v>
       </c>
       <c r="D24">
-        <v>0.4037822043942239</v>
+        <v>1.049575973236472</v>
       </c>
       <c r="E24">
-        <v>1.323513300287473</v>
+        <v>0.3087655323353218</v>
       </c>
       <c r="F24">
-        <v>12.68384387189542</v>
+        <v>10.72982501432679</v>
       </c>
       <c r="G24">
-        <v>3.571833238492701</v>
+        <v>0.0005745654017376179</v>
       </c>
       <c r="H24">
-        <v>6.767791488572357</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.15771735578052</v>
+        <v>0.1527609901988924</v>
       </c>
       <c r="K24">
-        <v>50.20497012357527</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.9025773858795674</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>36.37072852406675</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4462757198103589</v>
+        <v>0.01797350268771325</v>
       </c>
       <c r="D25">
-        <v>0.4037822043942239</v>
+        <v>1.049575973236472</v>
       </c>
       <c r="E25">
-        <v>1.323513300287473</v>
+        <v>0.3087655323353218</v>
       </c>
       <c r="F25">
-        <v>12.68384387189542</v>
+        <v>10.72982501432679</v>
       </c>
       <c r="G25">
-        <v>3.571833238492701</v>
+        <v>0.0005745654017376179</v>
       </c>
       <c r="H25">
-        <v>6.767791488572357</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.15771735578052</v>
+        <v>0.1527609901988924</v>
       </c>
       <c r="K25">
-        <v>50.20497012357527</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.9025773858795674</v>
       </c>
       <c r="M25">
+        <v>36.37072852406675</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_2/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.1456996119295866</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.04761821860049054</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.2212442221054616</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.4312957183540078</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.326511038435072</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2365197263748513</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2.523427253168677</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8993521136022693</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.705784298096134</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.138525519576689</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0184175782476359</v>
+        <v>0.1261952047852617</v>
       </c>
       <c r="D3">
-        <v>0.7762723984072295</v>
+        <v>0.04203215050519304</v>
       </c>
       <c r="E3">
-        <v>0.2525798675023054</v>
+        <v>0.1933281519321071</v>
       </c>
       <c r="F3">
-        <v>7.879482462752037</v>
+        <v>0.3921321818953487</v>
       </c>
       <c r="G3">
-        <v>0.0006624120377862269</v>
+        <v>0.295655450770326</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2278533600787966</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.106407555450879</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2.204497132614677</v>
       </c>
       <c r="L3">
-        <v>0.7358944783553767</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>30.19042057523711</v>
+        <v>0.7794021428392242</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.7105404170120906</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.054594542577433</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01932702486119808</v>
+        <v>0.1143078949592393</v>
       </c>
       <c r="D4">
-        <v>0.6305410412655306</v>
+        <v>0.03859258096196783</v>
       </c>
       <c r="E4">
-        <v>0.2156073913805727</v>
+        <v>0.1766671984034218</v>
       </c>
       <c r="F4">
-        <v>6.592792955670575</v>
+        <v>0.3689808725757544</v>
       </c>
       <c r="G4">
-        <v>0.0007204171978628957</v>
+        <v>0.2775373491228308</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2230519760243226</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0861737302064185</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2.008571878595433</v>
       </c>
       <c r="L4">
-        <v>0.6273478087970261</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>26.10794545520093</v>
+        <v>0.7061829996837261</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.7143324394479578</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.00589272985826</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01976931821632277</v>
+        <v>0.1094829496498164</v>
       </c>
       <c r="D5">
-        <v>0.584400562665877</v>
+        <v>0.0371882981843541</v>
       </c>
       <c r="E5">
-        <v>0.2024917841566989</v>
+        <v>0.1699863662595504</v>
       </c>
       <c r="F5">
-        <v>6.235435300742893</v>
+        <v>0.359756116311317</v>
       </c>
       <c r="G5">
-        <v>0.0007411973429216514</v>
+        <v>0.2703469387124287</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2212192536150397</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08075969421662421</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.928684690576773</v>
       </c>
       <c r="L5">
-        <v>0.5890235596467761</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>24.65826099461532</v>
+        <v>0.6764355988224082</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.7160894289636559</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9867120167327528</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01984598945404059</v>
+        <v>0.1086828471551229</v>
       </c>
       <c r="D6">
-        <v>0.5772752174374602</v>
+        <v>0.03695495392059911</v>
       </c>
       <c r="E6">
-        <v>0.2003939390960383</v>
+        <v>0.168883244218982</v>
       </c>
       <c r="F6">
-        <v>6.182892684065479</v>
+        <v>0.3582365716022267</v>
       </c>
       <c r="G6">
-        <v>0.0007445352365311468</v>
+        <v>0.2691641953417587</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2209222203593058</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07997614099087258</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.915416123818574</v>
       </c>
       <c r="L6">
-        <v>0.5829019068220447</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>24.42633917251914</v>
+        <v>0.6715009867285389</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.7163937513123102</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.9835659630433327</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0193327552805691</v>
+        <v>0.1142427500809475</v>
       </c>
       <c r="D7">
-        <v>0.6298785857467522</v>
+        <v>0.03857365320576633</v>
       </c>
       <c r="E7">
-        <v>0.215424531850708</v>
+        <v>0.1765766737869967</v>
       </c>
       <c r="F7">
-        <v>6.587465097501791</v>
+        <v>0.3688556356371748</v>
       </c>
       <c r="G7">
-        <v>0.0007207059665297974</v>
+        <v>0.2774396153564282</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.223026766475769</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08609207959313636</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2.007494704875512</v>
       </c>
       <c r="L7">
-        <v>0.6268128618661706</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>26.08773759138364</v>
+        <v>0.705781474845331</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.7143552872149783</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.005631416547558</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01797350268771325</v>
+        <v>0.1389542619918984</v>
       </c>
       <c r="D8">
-        <v>1.049575973236472</v>
+        <v>0.04569403518232207</v>
       </c>
       <c r="E8">
-        <v>0.3087655323353218</v>
+        <v>0.2115117867664793</v>
       </c>
       <c r="F8">
-        <v>10.72982501432679</v>
+        <v>0.4175967235508722</v>
       </c>
       <c r="G8">
-        <v>0.0005745654017376179</v>
+        <v>0.3156909328889981</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2334194598936108</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1527609901988924</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2.413468106549885</v>
       </c>
       <c r="L8">
-        <v>0.9025773858795674</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>36.37072852406675</v>
+        <v>0.857892608874387</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.7072386307351124</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.108969574966068</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01797350268771325</v>
+        <v>0.1882611361044297</v>
       </c>
       <c r="D9">
-        <v>1.049575973236472</v>
+        <v>0.05959005205122736</v>
       </c>
       <c r="E9">
-        <v>0.3087655323353218</v>
+        <v>0.2844043526892648</v>
       </c>
       <c r="F9">
-        <v>10.72982501432679</v>
+        <v>0.5210250420352693</v>
       </c>
       <c r="G9">
-        <v>0.0005745654017376179</v>
+        <v>0.3979929540251845</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.2582504977566344</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1527609901988924</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>3.209822528524143</v>
       </c>
       <c r="L9">
-        <v>0.9025773858795674</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>36.37072852406675</v>
+        <v>1.160493428894547</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.7005599626391188</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.336312224271495</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01797350268771325</v>
+        <v>0.2252208988240909</v>
       </c>
       <c r="D10">
-        <v>1.049575973236472</v>
+        <v>0.06977439829307741</v>
       </c>
       <c r="E10">
-        <v>0.3087655323353218</v>
+        <v>0.3415015699103492</v>
       </c>
       <c r="F10">
-        <v>10.72982501432679</v>
+        <v>0.6028998151745029</v>
       </c>
       <c r="G10">
-        <v>0.0005745654017376179</v>
+        <v>0.4639818197151158</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.2796910790644205</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1527609901988924</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>3.796667290430435</v>
       </c>
       <c r="L10">
-        <v>0.9025773858795674</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>36.37072852406675</v>
+        <v>1.386796382545171</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.7006239850115605</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.521693071568336</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01797350268771325</v>
+        <v>0.2422458803622476</v>
       </c>
       <c r="D11">
-        <v>1.049575973236472</v>
+        <v>0.0744059255431182</v>
       </c>
       <c r="E11">
-        <v>0.3087655323353218</v>
+        <v>0.3684573806695894</v>
       </c>
       <c r="F11">
-        <v>10.72982501432679</v>
+        <v>0.641687525789493</v>
       </c>
       <c r="G11">
-        <v>0.0005745654017376179</v>
+        <v>0.4954577957253434</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.2902547397100932</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1527609901988924</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>4.064415287322504</v>
       </c>
       <c r="L11">
-        <v>0.9025773858795674</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>36.37072852406675</v>
+        <v>1.490940500257963</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.701860509413379</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.610799572694219</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01797350268771325</v>
+        <v>0.2487278061065012</v>
       </c>
       <c r="D12">
-        <v>1.049575973236472</v>
+        <v>0.07615988955380715</v>
       </c>
       <c r="E12">
-        <v>0.3087655323353218</v>
+        <v>0.3788253236069465</v>
       </c>
       <c r="F12">
-        <v>10.72982501432679</v>
+        <v>0.6566207102489159</v>
       </c>
       <c r="G12">
-        <v>0.0005745654017376179</v>
+        <v>0.5076095363502873</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2943818148573598</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1527609901988924</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>4.165952616941183</v>
       </c>
       <c r="L12">
-        <v>0.9025773858795674</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>36.37072852406675</v>
+        <v>1.530578870669473</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.7025139166966312</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.645299262363181</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01797350268771325</v>
+        <v>0.2473301790022049</v>
       </c>
       <c r="D13">
-        <v>1.049575973236472</v>
+        <v>0.0757821322429777</v>
       </c>
       <c r="E13">
-        <v>0.3087655323353218</v>
+        <v>0.3765849465598023</v>
       </c>
       <c r="F13">
-        <v>10.72982501432679</v>
+        <v>0.6533932904743693</v>
       </c>
       <c r="G13">
-        <v>0.0005745654017376179</v>
+        <v>0.5049817192640802</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2934871610327576</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1527609901988924</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>4.144077636114503</v>
       </c>
       <c r="L13">
-        <v>0.9025773858795674</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>36.37072852406675</v>
+        <v>1.522032599310108</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.7023647659022174</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.637834295181278</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01797350268771325</v>
+        <v>0.2427784253762155</v>
       </c>
       <c r="D14">
-        <v>1.049575973236472</v>
+        <v>0.074550221282216</v>
       </c>
       <c r="E14">
-        <v>0.3087655323353218</v>
+        <v>0.3693070280255526</v>
       </c>
       <c r="F14">
-        <v>10.72982501432679</v>
+        <v>0.6429110356684333</v>
       </c>
       <c r="G14">
-        <v>0.0005745654017376179</v>
+        <v>0.4964527303602182</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2905916725355269</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1527609901988924</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>4.072765677117673</v>
       </c>
       <c r="L14">
-        <v>0.9025773858795674</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>36.37072852406675</v>
+        <v>1.494197364513127</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.7019104856186829</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.613622290792193</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01797350268771325</v>
+        <v>0.2399950326521463</v>
       </c>
       <c r="D15">
-        <v>1.049575973236472</v>
+        <v>0.07379566338038757</v>
       </c>
       <c r="E15">
-        <v>0.3087655323353218</v>
+        <v>0.3648705734723308</v>
       </c>
       <c r="F15">
-        <v>10.72982501432679</v>
+        <v>0.6365229947779767</v>
       </c>
       <c r="G15">
-        <v>0.0005745654017376179</v>
+        <v>0.4912594620050896</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2888349411870763</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1527609901988924</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>4.029105225195622</v>
       </c>
       <c r="L15">
-        <v>0.9025773858795674</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>36.37072852406675</v>
+        <v>1.477174591342305</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.7016566961499393</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.598892494911183</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01797350268771325</v>
+        <v>0.2241129139381712</v>
       </c>
       <c r="D16">
-        <v>1.049575973236472</v>
+        <v>0.06947171470796576</v>
       </c>
       <c r="E16">
-        <v>0.3087655323353218</v>
+        <v>0.3397613045391807</v>
       </c>
       <c r="F16">
-        <v>10.72982501432679</v>
+        <v>0.6003979403768156</v>
       </c>
       <c r="G16">
-        <v>0.0005745654017376179</v>
+        <v>0.4619560359925146</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2790178892414303</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1527609901988924</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>3.779188009905852</v>
       </c>
       <c r="L16">
-        <v>0.9025773858795674</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>36.37072852406675</v>
+        <v>1.380016847304489</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.7005684388942797</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.515971740929643</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01797350268771325</v>
+        <v>0.2144270849549628</v>
       </c>
       <c r="D17">
-        <v>1.049575973236472</v>
+        <v>0.06681896683686972</v>
       </c>
       <c r="E17">
-        <v>0.3087655323353218</v>
+        <v>0.3246222120847904</v>
       </c>
       <c r="F17">
-        <v>10.72982501432679</v>
+        <v>0.5786475189112963</v>
       </c>
       <c r="G17">
-        <v>0.0005745654017376179</v>
+        <v>0.4443683660001341</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2732100837224749</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1527609901988924</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>3.626097002347137</v>
       </c>
       <c r="L17">
-        <v>0.9025773858795674</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>36.37072852406675</v>
+        <v>1.32074039099723</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.7002180254633998</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.466374118941673</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01797350268771325</v>
+        <v>0.2088757019390215</v>
       </c>
       <c r="D18">
-        <v>1.049575973236472</v>
+        <v>0.06529302664342396</v>
       </c>
       <c r="E18">
-        <v>0.3087655323353218</v>
+        <v>0.3160057969125631</v>
       </c>
       <c r="F18">
-        <v>10.72982501432679</v>
+        <v>0.5662809438808836</v>
       </c>
       <c r="G18">
-        <v>0.0005745654017376179</v>
+        <v>0.4343881046093543</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2699451883116524</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1527609901988924</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>3.5381152370569</v>
       </c>
       <c r="L18">
-        <v>0.9025773858795674</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>36.37072852406675</v>
+        <v>1.286757005724226</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.7001293844387533</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.438291902427068</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01797350268771325</v>
+        <v>0.2069993424559158</v>
       </c>
       <c r="D19">
-        <v>1.049575973236472</v>
+        <v>0.0647763349146544</v>
       </c>
       <c r="E19">
-        <v>0.3087655323353218</v>
+        <v>0.3131035317233781</v>
       </c>
       <c r="F19">
-        <v>10.72982501432679</v>
+        <v>0.5621178299942144</v>
       </c>
       <c r="G19">
-        <v>0.0005745654017376179</v>
+        <v>0.4310315953227928</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2688524326377149</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1527609901988924</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>3.50833753787191</v>
       </c>
       <c r="L19">
-        <v>0.9025773858795674</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>36.37072852406675</v>
+        <v>1.275269011268293</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.7001184258234048</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.428858122699268</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01797350268771325</v>
+        <v>0.2154560928719462</v>
       </c>
       <c r="D20">
-        <v>1.049575973236472</v>
+        <v>0.06710136975198822</v>
       </c>
       <c r="E20">
-        <v>0.3087655323353218</v>
+        <v>0.3262242229419101</v>
       </c>
       <c r="F20">
-        <v>10.72982501432679</v>
+        <v>0.5809478532584009</v>
       </c>
       <c r="G20">
-        <v>0.0005745654017376179</v>
+        <v>0.4462263982897809</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.2738204376894515</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1527609901988924</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>3.642386102475484</v>
       </c>
       <c r="L20">
-        <v>0.9025773858795674</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>36.37072852406675</v>
+        <v>1.327038794370523</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.7002435611062339</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.471607319776439</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01797350268771325</v>
+        <v>0.2441144003781659</v>
       </c>
       <c r="D21">
-        <v>1.049575973236472</v>
+        <v>0.07491205799556866</v>
       </c>
       <c r="E21">
-        <v>0.3087655323353218</v>
+        <v>0.3714402160030588</v>
       </c>
       <c r="F21">
-        <v>10.72982501432679</v>
+        <v>0.6459830812271576</v>
       </c>
       <c r="G21">
-        <v>0.0005745654017376179</v>
+        <v>0.4989514008792497</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.2914386189307407</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1527609901988924</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>4.093707458398853</v>
       </c>
       <c r="L21">
-        <v>0.9025773858795674</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>36.37072852406675</v>
+        <v>1.50236754235037</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.7020387973793447</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.620712813182791</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01797350268771325</v>
+        <v>0.263050196807086</v>
       </c>
       <c r="D22">
-        <v>1.049575973236472</v>
+        <v>0.08001756605442978</v>
       </c>
       <c r="E22">
-        <v>0.3087655323353218</v>
+        <v>0.4019363161834306</v>
       </c>
       <c r="F22">
-        <v>10.72982501432679</v>
+        <v>0.6899281828058434</v>
       </c>
       <c r="G22">
-        <v>0.0005745654017376179</v>
+        <v>0.5347771447753331</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.3036978378951005</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1527609901988924</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>4.389546354041897</v>
       </c>
       <c r="L22">
-        <v>0.9025773858795674</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>36.37072852406675</v>
+        <v>1.618143340456044</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.7042973221444555</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.722610631566084</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01797350268771325</v>
+        <v>0.2529233996153124</v>
       </c>
       <c r="D23">
-        <v>1.049575973236472</v>
+        <v>0.07729248282853263</v>
       </c>
       <c r="E23">
-        <v>0.3087655323353218</v>
+        <v>0.385566749332753</v>
       </c>
       <c r="F23">
-        <v>10.72982501432679</v>
+        <v>0.6663338644829793</v>
       </c>
       <c r="G23">
-        <v>0.0005745654017376179</v>
+        <v>0.5155231771815778</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.2970831009035351</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1527609901988924</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>4.231559757019625</v>
       </c>
       <c r="L23">
-        <v>0.9025773858795674</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>36.37072852406675</v>
+        <v>1.556232649321728</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.7029885722604234</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.667794195616949</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01797350268771325</v>
+        <v>0.2149908253741017</v>
       </c>
       <c r="D24">
-        <v>1.049575973236472</v>
+        <v>0.06697369803349318</v>
       </c>
       <c r="E24">
-        <v>0.3087655323353218</v>
+        <v>0.3254996834945771</v>
       </c>
       <c r="F24">
-        <v>10.72982501432679</v>
+        <v>0.57990744390397</v>
       </c>
       <c r="G24">
-        <v>0.0005745654017376179</v>
+        <v>0.445385975180784</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.2735442666615882</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1527609901988924</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>3.635021702212612</v>
       </c>
       <c r="L24">
-        <v>0.9025773858795674</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>36.37072852406675</v>
+        <v>1.324190991098035</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.7002316659072818</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.469240048979572</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01797350268771325</v>
+        <v>0.1748099569021946</v>
       </c>
       <c r="D25">
-        <v>1.049575973236472</v>
+        <v>0.05583642347859552</v>
       </c>
       <c r="E25">
-        <v>0.3087655323353218</v>
+        <v>0.2641298040498938</v>
       </c>
       <c r="F25">
-        <v>10.72982501432679</v>
+        <v>0.4920953679216638</v>
       </c>
       <c r="G25">
-        <v>0.0005745654017376179</v>
+        <v>0.3748406267483944</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.2510085283781507</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1527609901988924</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.994202328917709</v>
       </c>
       <c r="L25">
-        <v>0.9025773858795674</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>36.37072852406675</v>
+        <v>1.078036673886132</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.701534724464743</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.271838872676113</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_2/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1456996119295866</v>
+        <v>0.04978849882897407</v>
       </c>
       <c r="D2">
-        <v>0.04761821860049054</v>
+        <v>0.01742262733052513</v>
       </c>
       <c r="E2">
-        <v>0.2212442221054616</v>
+        <v>0.1258385180787442</v>
       </c>
       <c r="F2">
-        <v>0.4312957183540078</v>
+        <v>0.4881132597339999</v>
       </c>
       <c r="G2">
-        <v>0.326511038435072</v>
+        <v>0.3330331740223045</v>
       </c>
       <c r="H2">
-        <v>0.2365197263748513</v>
+        <v>0.4851437576033106</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.523427253168677</v>
+        <v>0.7882615431310853</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8993521136022693</v>
+        <v>0.3142111624823514</v>
       </c>
       <c r="N2">
-        <v>0.705784298096134</v>
+        <v>1.003008170214791</v>
       </c>
       <c r="O2">
-        <v>1.138525519576689</v>
+        <v>1.569274099121031</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1261952047852617</v>
+        <v>0.04419155087620652</v>
       </c>
       <c r="D3">
-        <v>0.04203215050519304</v>
+        <v>0.0155700706879216</v>
       </c>
       <c r="E3">
-        <v>0.1933281519321071</v>
+        <v>0.1197778099722839</v>
       </c>
       <c r="F3">
-        <v>0.3921321818953487</v>
+        <v>0.4827594287832468</v>
       </c>
       <c r="G3">
-        <v>0.295655450770326</v>
+        <v>0.328925592314647</v>
       </c>
       <c r="H3">
-        <v>0.2278533600787966</v>
+        <v>0.4871128233655213</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.204497132614677</v>
+        <v>0.6877651373429501</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7794021428392242</v>
+        <v>0.2795813537323824</v>
       </c>
       <c r="N3">
-        <v>0.7105404170120906</v>
+        <v>1.006940546819074</v>
       </c>
       <c r="O3">
-        <v>1.054594542577433</v>
+        <v>1.564406486079974</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1143078949592393</v>
+        <v>0.04076807626913137</v>
       </c>
       <c r="D4">
-        <v>0.03859258096196783</v>
+        <v>0.01442565598295431</v>
       </c>
       <c r="E4">
-        <v>0.1766671984034218</v>
+        <v>0.1161755229688168</v>
       </c>
       <c r="F4">
-        <v>0.3689808725757544</v>
+        <v>0.479850183437101</v>
       </c>
       <c r="G4">
-        <v>0.2775373491228308</v>
+        <v>0.326710464224206</v>
       </c>
       <c r="H4">
-        <v>0.2230519760243226</v>
+        <v>0.4885973284187486</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.008571878595433</v>
+        <v>0.6258494318049088</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7061829996837261</v>
+        <v>0.2583655859229026</v>
       </c>
       <c r="N4">
-        <v>0.7143324394479578</v>
+        <v>1.009755151966765</v>
       </c>
       <c r="O4">
-        <v>1.00589272985826</v>
+        <v>1.562635162836003</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1094829496498164</v>
+        <v>0.03937627889396822</v>
       </c>
       <c r="D5">
-        <v>0.0371882981843541</v>
+        <v>0.01395758438815164</v>
       </c>
       <c r="E5">
-        <v>0.1699863662595504</v>
+        <v>0.1147372319677231</v>
       </c>
       <c r="F5">
-        <v>0.359756116311317</v>
+        <v>0.4787595673505791</v>
       </c>
       <c r="G5">
-        <v>0.2703469387124287</v>
+        <v>0.3258847335387998</v>
       </c>
       <c r="H5">
-        <v>0.2212192536150397</v>
+        <v>0.4892715279916757</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.928684690576773</v>
+        <v>0.6005669088142724</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6764355988224082</v>
+        <v>0.2497319526691513</v>
       </c>
       <c r="N5">
-        <v>0.7160894289636559</v>
+        <v>1.011002908307816</v>
       </c>
       <c r="O5">
-        <v>0.9867120167327528</v>
+        <v>1.562218916976605</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1086828471551229</v>
+        <v>0.03914537135071328</v>
       </c>
       <c r="D6">
-        <v>0.03695495392059911</v>
+        <v>0.01387975889493021</v>
       </c>
       <c r="E6">
-        <v>0.168883244218982</v>
+        <v>0.114500189355077</v>
       </c>
       <c r="F6">
-        <v>0.3582365716022267</v>
+        <v>0.4785842007141881</v>
       </c>
       <c r="G6">
-        <v>0.2691641953417587</v>
+        <v>0.3257522625133333</v>
       </c>
       <c r="H6">
-        <v>0.2209222203593058</v>
+        <v>0.4893876602947742</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.915416123818574</v>
+        <v>0.5963657085929697</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6715009867285389</v>
+        <v>0.2482990708627568</v>
       </c>
       <c r="N6">
-        <v>0.7163937513123102</v>
+        <v>1.011216189405609</v>
       </c>
       <c r="O6">
-        <v>0.9835659630433327</v>
+        <v>1.562168240154918</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1142427500809475</v>
+        <v>0.04074929264342586</v>
       </c>
       <c r="D7">
-        <v>0.03857365320576633</v>
+        <v>0.01441935030059938</v>
       </c>
       <c r="E7">
-        <v>0.1765766737869967</v>
+        <v>0.1161560058786435</v>
       </c>
       <c r="F7">
-        <v>0.3688556356371748</v>
+        <v>0.4798350908371845</v>
       </c>
       <c r="G7">
-        <v>0.2774396153564282</v>
+        <v>0.3266990168632944</v>
       </c>
       <c r="H7">
-        <v>0.223026766475769</v>
+        <v>0.4886061405434958</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.007494704875512</v>
+        <v>0.6255086687793323</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.705781474845331</v>
+        <v>0.2582491011119856</v>
       </c>
       <c r="N7">
-        <v>0.7143552872149783</v>
+        <v>1.009771571354094</v>
       </c>
       <c r="O7">
-        <v>1.005631416547558</v>
+        <v>1.562628312632242</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1389542619918984</v>
+        <v>0.04785596126501446</v>
       </c>
       <c r="D8">
-        <v>0.04569403518232207</v>
+        <v>0.01678532381384912</v>
       </c>
       <c r="E8">
-        <v>0.2115117867664793</v>
+        <v>0.1237239285507812</v>
       </c>
       <c r="F8">
-        <v>0.4175967235508722</v>
+        <v>0.4861887157388765</v>
       </c>
       <c r="G8">
-        <v>0.3156909328889981</v>
+        <v>0.3315530322742148</v>
       </c>
       <c r="H8">
-        <v>0.2334194598936108</v>
+        <v>0.4857654989000508</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.413468106549885</v>
+        <v>0.7536549796150211</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.857892608874387</v>
+        <v>0.3022610993565777</v>
       </c>
       <c r="N8">
-        <v>0.7072386307351124</v>
+        <v>1.004281110727874</v>
       </c>
       <c r="O8">
-        <v>1.108969574966068</v>
+        <v>1.567342738258588</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1882611361044297</v>
+        <v>0.06189617685159021</v>
       </c>
       <c r="D9">
-        <v>0.05959005205122736</v>
+        <v>0.02136878334593462</v>
       </c>
       <c r="E9">
-        <v>0.2844043526892648</v>
+        <v>0.1395213402769429</v>
       </c>
       <c r="F9">
-        <v>0.5210250420352693</v>
+        <v>0.5016550989782402</v>
       </c>
       <c r="G9">
-        <v>0.3979929540251845</v>
+        <v>0.3435186767894862</v>
       </c>
       <c r="H9">
-        <v>0.2582504977566344</v>
+        <v>0.482382350686521</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.209822528524143</v>
+        <v>1.003222368778722</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.160493428894547</v>
+        <v>0.3889408711203259</v>
       </c>
       <c r="N9">
-        <v>0.7005599626391188</v>
+        <v>0.9966822600424337</v>
       </c>
       <c r="O9">
-        <v>1.336312224271495</v>
+        <v>1.586274988567453</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2252208988240909</v>
+        <v>0.07227644189245552</v>
       </c>
       <c r="D10">
-        <v>0.06977439829307741</v>
+        <v>0.02470072906987042</v>
       </c>
       <c r="E10">
-        <v>0.3415015699103492</v>
+        <v>0.1517293986921473</v>
       </c>
       <c r="F10">
-        <v>0.6028998151745029</v>
+        <v>0.5148637661094853</v>
       </c>
       <c r="G10">
-        <v>0.4639818197151158</v>
+        <v>0.3538189202284769</v>
       </c>
       <c r="H10">
-        <v>0.2796910790644205</v>
+        <v>0.4812328279991362</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.796667290430435</v>
+        <v>1.185467595210071</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.386796382545171</v>
+        <v>0.4528565501416182</v>
       </c>
       <c r="N10">
-        <v>0.7006239850115605</v>
+        <v>0.9930226314058359</v>
       </c>
       <c r="O10">
-        <v>1.521693071568336</v>
+        <v>1.606132864313366</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2422458803622476</v>
+        <v>0.07701316080856202</v>
       </c>
       <c r="D11">
-        <v>0.0744059255431182</v>
+        <v>0.02620855601842464</v>
       </c>
       <c r="E11">
-        <v>0.3684573806695894</v>
+        <v>0.1574178577494152</v>
       </c>
       <c r="F11">
-        <v>0.641687525789493</v>
+        <v>0.5212762455103501</v>
       </c>
       <c r="G11">
-        <v>0.4954577957253434</v>
+        <v>0.3588362583106175</v>
       </c>
       <c r="H11">
-        <v>0.2902547397100932</v>
+        <v>0.4810006056422509</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>4.064415287322504</v>
+        <v>1.268122799173852</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.490940500257963</v>
+        <v>0.481985318237534</v>
       </c>
       <c r="N11">
-        <v>0.701860509413379</v>
+        <v>0.9917738599422563</v>
       </c>
       <c r="O11">
-        <v>1.610799572694219</v>
+        <v>1.616467793276485</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2487278061065012</v>
+        <v>0.07880894957970952</v>
       </c>
       <c r="D12">
-        <v>0.07615988955380715</v>
+        <v>0.02677836814428503</v>
       </c>
       <c r="E12">
-        <v>0.3788253236069465</v>
+        <v>0.1595916350107203</v>
       </c>
       <c r="F12">
-        <v>0.6566207102489159</v>
+        <v>0.5237627280996975</v>
       </c>
       <c r="G12">
-        <v>0.5076095363502873</v>
+        <v>0.3607841664688038</v>
       </c>
       <c r="H12">
-        <v>0.2943818148573598</v>
+        <v>0.4809545117952183</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>4.165952616941183</v>
+        <v>1.299385007784906</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.530578870669473</v>
+        <v>0.4930232467596767</v>
       </c>
       <c r="N12">
-        <v>0.7025139166966312</v>
+        <v>0.9913606766919969</v>
       </c>
       <c r="O12">
-        <v>1.645299262363181</v>
+        <v>1.620569185373114</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2473301790022049</v>
+        <v>0.07842210136438155</v>
       </c>
       <c r="D13">
-        <v>0.0757821322429777</v>
+        <v>0.02665570145543228</v>
       </c>
       <c r="E13">
-        <v>0.3765849465598023</v>
+        <v>0.1591225934657743</v>
       </c>
       <c r="F13">
-        <v>0.6533932904743693</v>
+        <v>0.5232246280284443</v>
       </c>
       <c r="G13">
-        <v>0.5049817192640802</v>
+        <v>0.3603625129534862</v>
       </c>
       <c r="H13">
-        <v>0.2934871610327576</v>
+        <v>0.4809625772627157</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>4.144077636114503</v>
+        <v>1.29265382781233</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.522032599310108</v>
+        <v>0.4906457004205151</v>
       </c>
       <c r="N13">
-        <v>0.7023647659022174</v>
+        <v>0.9914470098437249</v>
       </c>
       <c r="O13">
-        <v>1.637834295181278</v>
+        <v>1.619677515731127</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2427784253762155</v>
+        <v>0.07716085951383889</v>
       </c>
       <c r="D14">
-        <v>0.074550221282216</v>
+        <v>0.02625545843464749</v>
       </c>
       <c r="E14">
-        <v>0.3693070280255526</v>
+        <v>0.1575962996925568</v>
       </c>
       <c r="F14">
-        <v>0.6429110356684333</v>
+        <v>0.5214796423368142</v>
       </c>
       <c r="G14">
-        <v>0.4964527303602182</v>
+        <v>0.3589955514354131</v>
       </c>
       <c r="H14">
-        <v>0.2905916725355269</v>
+        <v>0.4809959746273051</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>4.072765677117673</v>
+        <v>1.270695521681262</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.494197364513127</v>
+        <v>0.4828932659091691</v>
       </c>
       <c r="N14">
-        <v>0.7019104856186829</v>
+        <v>0.9917386713253649</v>
       </c>
       <c r="O14">
-        <v>1.613622290792193</v>
+        <v>1.616801450323635</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2399950326521463</v>
+        <v>0.07638858496908085</v>
       </c>
       <c r="D15">
-        <v>0.07379566338038757</v>
+        <v>0.02601014474193875</v>
       </c>
       <c r="E15">
-        <v>0.3648705734723308</v>
+        <v>0.1566639719460099</v>
       </c>
       <c r="F15">
-        <v>0.6365229947779767</v>
+        <v>0.5204183740959394</v>
       </c>
       <c r="G15">
-        <v>0.4912594620050896</v>
+        <v>0.3581645001494991</v>
       </c>
       <c r="H15">
-        <v>0.2888349411870763</v>
+        <v>0.4810218819886103</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4.029105225195622</v>
+        <v>1.257240487889135</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.477174591342305</v>
+        <v>0.478145647570031</v>
       </c>
       <c r="N15">
-        <v>0.7016566961499393</v>
+        <v>0.9919250934845394</v>
       </c>
       <c r="O15">
-        <v>1.598892494911183</v>
+        <v>1.615064250125982</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2241129139381712</v>
+        <v>0.07196718034740002</v>
       </c>
       <c r="D16">
-        <v>0.06947171470796576</v>
+        <v>0.02460202728802585</v>
       </c>
       <c r="E16">
-        <v>0.3397613045391807</v>
+        <v>0.1513603836230146</v>
       </c>
       <c r="F16">
-        <v>0.6003979403768156</v>
+        <v>0.5144528337568417</v>
       </c>
       <c r="G16">
-        <v>0.4619560359925146</v>
+        <v>0.3534977217451853</v>
       </c>
       <c r="H16">
-        <v>0.2790178892414303</v>
+        <v>0.4812538574534528</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.779188009905852</v>
+        <v>1.180060725309602</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.380016847304489</v>
+        <v>0.4509539740416244</v>
       </c>
       <c r="N16">
-        <v>0.7005684388942797</v>
+        <v>0.9931126021730847</v>
       </c>
       <c r="O16">
-        <v>1.515971740929643</v>
+        <v>1.605483695230589</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2144270849549628</v>
+        <v>0.06925854199054982</v>
       </c>
       <c r="D17">
-        <v>0.06681896683686972</v>
+        <v>0.02373614706905869</v>
       </c>
       <c r="E17">
-        <v>0.3246222120847904</v>
+        <v>0.1481415642195572</v>
       </c>
       <c r="F17">
-        <v>0.5786475189112963</v>
+        <v>0.510896696468599</v>
       </c>
       <c r="G17">
-        <v>0.4443683660001341</v>
+        <v>0.3507199420443072</v>
       </c>
       <c r="H17">
-        <v>0.2732100837224749</v>
+        <v>0.4814706517968546</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.626097002347137</v>
+        <v>1.132648432649376</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.32074039099723</v>
+        <v>0.4342862800732092</v>
       </c>
       <c r="N17">
-        <v>0.7002180254633998</v>
+        <v>0.9939475619201517</v>
       </c>
       <c r="O17">
-        <v>1.466374118941673</v>
+        <v>1.599940123085901</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2088757019390215</v>
+        <v>0.06770198796246518</v>
       </c>
       <c r="D18">
-        <v>0.06529302664342396</v>
+        <v>0.02323737489859923</v>
       </c>
       <c r="E18">
-        <v>0.3160057969125631</v>
+        <v>0.1463028702815805</v>
       </c>
       <c r="F18">
-        <v>0.5662809438808836</v>
+        <v>0.5088892980744006</v>
       </c>
       <c r="G18">
-        <v>0.4343881046093543</v>
+        <v>0.349153443343809</v>
       </c>
       <c r="H18">
-        <v>0.2699451883116524</v>
+        <v>0.4816227058808664</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.5381152370569</v>
+        <v>1.105354794669381</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.286757005724226</v>
+        <v>0.4247044804933466</v>
       </c>
       <c r="N18">
-        <v>0.7001293844387533</v>
+        <v>0.9944669726631048</v>
       </c>
       <c r="O18">
-        <v>1.438291902427068</v>
+        <v>1.596874071299283</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2069993424559158</v>
+        <v>0.0671752035273272</v>
       </c>
       <c r="D19">
-        <v>0.0647763349146544</v>
+        <v>0.0230683730330199</v>
       </c>
       <c r="E19">
-        <v>0.3131035317233781</v>
+        <v>0.1456824905297793</v>
       </c>
       <c r="F19">
-        <v>0.5621178299942144</v>
+        <v>0.5082161489845163</v>
       </c>
       <c r="G19">
-        <v>0.4310315953227928</v>
+        <v>0.3486284058760134</v>
       </c>
       <c r="H19">
-        <v>0.2688524326377149</v>
+        <v>0.4816788865829551</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.50833753787191</v>
+        <v>1.096109681068754</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.275269011268293</v>
+        <v>0.4214611142081708</v>
       </c>
       <c r="N19">
-        <v>0.7001184258234048</v>
+        <v>0.9946495664977419</v>
       </c>
       <c r="O19">
-        <v>1.428858122699268</v>
+        <v>1.595856973049109</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2154560928719462</v>
+        <v>0.06954673813007162</v>
       </c>
       <c r="D20">
-        <v>0.06710136975198822</v>
+        <v>0.02382839841197182</v>
       </c>
       <c r="E20">
-        <v>0.3262242229419101</v>
+        <v>0.1484828981099398</v>
       </c>
       <c r="F20">
-        <v>0.5809478532584009</v>
+        <v>0.5112713196319802</v>
       </c>
       <c r="G20">
-        <v>0.4462263982897809</v>
+        <v>0.3510124098260974</v>
       </c>
       <c r="H20">
-        <v>0.2738204376894515</v>
+        <v>0.4814447417419103</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.642386102475484</v>
+        <v>1.137697980263624</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.327038794370523</v>
+        <v>0.4360600664170846</v>
       </c>
       <c r="N20">
-        <v>0.7002435611062339</v>
+        <v>0.9938546266083961</v>
       </c>
       <c r="O20">
-        <v>1.471607319776439</v>
+        <v>1.600517566653537</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2441144003781659</v>
+        <v>0.07753126005673039</v>
       </c>
       <c r="D21">
-        <v>0.07491205799556866</v>
+        <v>0.0263730515181777</v>
       </c>
       <c r="E21">
-        <v>0.3714402160030588</v>
+        <v>0.1580440728314514</v>
       </c>
       <c r="F21">
-        <v>0.6459830812271576</v>
+        <v>0.5219906057750023</v>
       </c>
       <c r="G21">
-        <v>0.4989514008792497</v>
+        <v>0.3593957577859896</v>
       </c>
       <c r="H21">
-        <v>0.2914386189307407</v>
+        <v>0.4809850290568818</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>4.093707458398853</v>
+        <v>1.277146240429545</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.50236754235037</v>
+        <v>0.4851701416323237</v>
       </c>
       <c r="N21">
-        <v>0.7020387973793447</v>
+        <v>0.99165138400312</v>
       </c>
       <c r="O21">
-        <v>1.620712813182791</v>
+        <v>1.617641119203142</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.263050196807086</v>
+        <v>0.08276181689713269</v>
       </c>
       <c r="D22">
-        <v>0.08001756605442978</v>
+        <v>0.0280292984230428</v>
       </c>
       <c r="E22">
-        <v>0.4019363161834306</v>
+        <v>0.1644076987794065</v>
       </c>
       <c r="F22">
-        <v>0.6899281828058434</v>
+        <v>0.5293356743857345</v>
       </c>
       <c r="G22">
-        <v>0.5347771447753331</v>
+        <v>0.3651543721975656</v>
       </c>
       <c r="H22">
-        <v>0.3036978378951005</v>
+        <v>0.4809284965974143</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>4.389546354041897</v>
+        <v>1.368064236027124</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.618143340456044</v>
+        <v>0.5173100369327841</v>
       </c>
       <c r="N22">
-        <v>0.7042973221444555</v>
+        <v>0.9905593584130514</v>
       </c>
       <c r="O22">
-        <v>1.722610631566084</v>
+        <v>1.629927158225456</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2529233996153124</v>
+        <v>0.07996905829364209</v>
       </c>
       <c r="D23">
-        <v>0.07729248282853263</v>
+        <v>0.02714596466051233</v>
       </c>
       <c r="E23">
-        <v>0.385566749332753</v>
+        <v>0.1610007124011759</v>
       </c>
       <c r="F23">
-        <v>0.6663338644829793</v>
+        <v>0.5253843687306841</v>
       </c>
       <c r="G23">
-        <v>0.5155231771815778</v>
+        <v>0.3620552238124475</v>
       </c>
       <c r="H23">
-        <v>0.2970831009035351</v>
+        <v>0.480936337051034</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>4.231559757019625</v>
+        <v>1.319560238449469</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.556232649321728</v>
+        <v>0.5001524295051354</v>
       </c>
       <c r="N23">
-        <v>0.7029885722604234</v>
+        <v>0.9911103973218616</v>
       </c>
       <c r="O23">
-        <v>1.667794195616949</v>
+        <v>1.623269486509599</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2149908253741017</v>
+        <v>0.06941644254150958</v>
       </c>
       <c r="D24">
-        <v>0.06697369803349318</v>
+        <v>0.02378669458666138</v>
       </c>
       <c r="E24">
-        <v>0.3254996834945771</v>
+        <v>0.1483285441746887</v>
       </c>
       <c r="F24">
-        <v>0.57990744390397</v>
+        <v>0.5111018370334151</v>
       </c>
       <c r="G24">
-        <v>0.445385975180784</v>
+        <v>0.3508800902059903</v>
       </c>
       <c r="H24">
-        <v>0.2735442666615882</v>
+        <v>0.4814563702797017</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.635021702212612</v>
+        <v>1.135415190796323</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.324190991098035</v>
+        <v>0.4352581354859097</v>
       </c>
       <c r="N24">
-        <v>0.7002316659072818</v>
+        <v>0.9938965199806802</v>
       </c>
       <c r="O24">
-        <v>1.469240048979572</v>
+        <v>1.600256127486148</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1748099569021946</v>
+        <v>0.05808663120554058</v>
       </c>
       <c r="D25">
-        <v>0.05583642347859552</v>
+        <v>0.0201349835719995</v>
       </c>
       <c r="E25">
-        <v>0.2641298040498938</v>
+        <v>0.1351433910557773</v>
       </c>
       <c r="F25">
-        <v>0.4920953679216638</v>
+        <v>0.4971478320345923</v>
       </c>
       <c r="G25">
-        <v>0.3748406267483944</v>
+        <v>0.3400178921582011</v>
       </c>
       <c r="H25">
-        <v>0.2510085283781507</v>
+        <v>0.4830631421126128</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.994202328917709</v>
+        <v>0.9358988005172364</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.078036673886132</v>
+        <v>0.3654513113842697</v>
       </c>
       <c r="N25">
-        <v>0.701534724464743</v>
+        <v>0.9983996520453289</v>
       </c>
       <c r="O25">
-        <v>1.271838872676113</v>
+        <v>1.580111798433819</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_2/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04978849882897407</v>
+        <v>0.1456996119293592</v>
       </c>
       <c r="D2">
-        <v>0.01742262733052513</v>
+        <v>0.04761821860033422</v>
       </c>
       <c r="E2">
-        <v>0.1258385180787442</v>
+        <v>0.2212442221054616</v>
       </c>
       <c r="F2">
-        <v>0.4881132597339999</v>
+        <v>0.4312957183539865</v>
       </c>
       <c r="G2">
-        <v>0.3330331740223045</v>
+        <v>0.3265110384351857</v>
       </c>
       <c r="H2">
-        <v>0.4851437576033106</v>
+        <v>0.236519726374965</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7882615431310853</v>
+        <v>2.523427253168592</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3142111624823514</v>
+        <v>0.8993521136022764</v>
       </c>
       <c r="N2">
-        <v>1.003008170214791</v>
+        <v>0.7057842980961908</v>
       </c>
       <c r="O2">
-        <v>1.569274099121031</v>
+        <v>1.138525519576689</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04419155087620652</v>
+        <v>0.126195204785347</v>
       </c>
       <c r="D3">
-        <v>0.0155700706879216</v>
+        <v>0.04203215050515752</v>
       </c>
       <c r="E3">
-        <v>0.1197778099722839</v>
+        <v>0.1933281519321071</v>
       </c>
       <c r="F3">
-        <v>0.4827594287832468</v>
+        <v>0.3921321818953345</v>
       </c>
       <c r="G3">
-        <v>0.328925592314647</v>
+        <v>0.295655450770326</v>
       </c>
       <c r="H3">
-        <v>0.4871128233655213</v>
+        <v>0.2278533600788961</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6877651373429501</v>
+        <v>2.204497132614847</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2795813537323824</v>
+        <v>0.7794021428392384</v>
       </c>
       <c r="N3">
-        <v>1.006940546819074</v>
+        <v>0.7105404170120977</v>
       </c>
       <c r="O3">
-        <v>1.564406486079974</v>
+        <v>1.054594542577462</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04076807626913137</v>
+        <v>0.1143078949596656</v>
       </c>
       <c r="D4">
-        <v>0.01442565598295431</v>
+        <v>0.03859258096196072</v>
       </c>
       <c r="E4">
-        <v>0.1161755229688168</v>
+        <v>0.1766671984034147</v>
       </c>
       <c r="F4">
-        <v>0.479850183437101</v>
+        <v>0.3689808725757615</v>
       </c>
       <c r="G4">
-        <v>0.326710464224206</v>
+        <v>0.2775373491228308</v>
       </c>
       <c r="H4">
-        <v>0.4885973284187486</v>
+        <v>0.2230519760242302</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6258494318049088</v>
+        <v>2.008571878595376</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2583655859229026</v>
+        <v>0.7061829996837332</v>
       </c>
       <c r="N4">
-        <v>1.009755151966765</v>
+        <v>0.714332439447972</v>
       </c>
       <c r="O4">
-        <v>1.562635162836003</v>
+        <v>1.005892729858317</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03937627889396822</v>
+        <v>0.1094829496499727</v>
       </c>
       <c r="D5">
-        <v>0.01395758438815164</v>
+        <v>0.03718829818446068</v>
       </c>
       <c r="E5">
-        <v>0.1147372319677231</v>
+        <v>0.1699863662595362</v>
       </c>
       <c r="F5">
-        <v>0.4787595673505791</v>
+        <v>0.359756116311317</v>
       </c>
       <c r="G5">
-        <v>0.3258847335387998</v>
+        <v>0.270346938712386</v>
       </c>
       <c r="H5">
-        <v>0.4892715279916757</v>
+        <v>0.2212192536150397</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6005669088142724</v>
+        <v>1.928684690576688</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2497319526691513</v>
+        <v>0.6764355988224011</v>
       </c>
       <c r="N5">
-        <v>1.011002908307816</v>
+        <v>0.7160894289636559</v>
       </c>
       <c r="O5">
-        <v>1.562218916976605</v>
+        <v>0.9867120167327812</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03914537135071328</v>
+        <v>0.1086828471554213</v>
       </c>
       <c r="D6">
-        <v>0.01387975889493021</v>
+        <v>0.0369549539207128</v>
       </c>
       <c r="E6">
-        <v>0.114500189355077</v>
+        <v>0.168883244218982</v>
       </c>
       <c r="F6">
-        <v>0.4785842007141881</v>
+        <v>0.3582365716022338</v>
       </c>
       <c r="G6">
-        <v>0.3257522625133333</v>
+        <v>0.2691641953418227</v>
       </c>
       <c r="H6">
-        <v>0.4893876602947742</v>
+        <v>0.2209222203593129</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5963657085929697</v>
+        <v>1.915416123818716</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2482990708627568</v>
+        <v>0.6715009867285247</v>
       </c>
       <c r="N6">
-        <v>1.011216189405609</v>
+        <v>0.7163937513123102</v>
       </c>
       <c r="O6">
-        <v>1.562168240154918</v>
+        <v>0.9835659630433184</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04074929264342586</v>
+        <v>0.1142427500809475</v>
       </c>
       <c r="D7">
-        <v>0.01441935030059938</v>
+        <v>0.03857365320592265</v>
       </c>
       <c r="E7">
-        <v>0.1161560058786435</v>
+        <v>0.1765766737870038</v>
       </c>
       <c r="F7">
-        <v>0.4798350908371845</v>
+        <v>0.3688556356371748</v>
       </c>
       <c r="G7">
-        <v>0.3266990168632944</v>
+        <v>0.2774396153565277</v>
       </c>
       <c r="H7">
-        <v>0.4886061405434958</v>
+        <v>0.223026766475769</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6255086687793323</v>
+        <v>2.00749470487554</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2582491011119856</v>
+        <v>0.705781474845331</v>
       </c>
       <c r="N7">
-        <v>1.009771571354094</v>
+        <v>0.7143552872149712</v>
       </c>
       <c r="O7">
-        <v>1.562628312632242</v>
+        <v>1.005631416547544</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04785596126501446</v>
+        <v>0.1389542619916568</v>
       </c>
       <c r="D8">
-        <v>0.01678532381384912</v>
+        <v>0.04569403518220128</v>
       </c>
       <c r="E8">
-        <v>0.1237239285507812</v>
+        <v>0.2115117867664509</v>
       </c>
       <c r="F8">
-        <v>0.4861887157388765</v>
+        <v>0.4175967235508651</v>
       </c>
       <c r="G8">
-        <v>0.3315530322742148</v>
+        <v>0.3156909328889981</v>
       </c>
       <c r="H8">
-        <v>0.4857654989000508</v>
+        <v>0.2334194598936108</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7536549796150211</v>
+        <v>2.413468106549828</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3022610993565777</v>
+        <v>0.8578926088744083</v>
       </c>
       <c r="N8">
-        <v>1.004281110727874</v>
+        <v>0.7072386307351053</v>
       </c>
       <c r="O8">
-        <v>1.567342738258588</v>
+        <v>1.108969574966068</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06189617685159021</v>
+        <v>0.1882611361044297</v>
       </c>
       <c r="D9">
-        <v>0.02136878334593462</v>
+        <v>0.0595900520510213</v>
       </c>
       <c r="E9">
-        <v>0.1395213402769429</v>
+        <v>0.2844043526893003</v>
       </c>
       <c r="F9">
-        <v>0.5016550989782402</v>
+        <v>0.5210250420352551</v>
       </c>
       <c r="G9">
-        <v>0.3435186767894862</v>
+        <v>0.3979929540252698</v>
       </c>
       <c r="H9">
-        <v>0.482382350686521</v>
+        <v>0.2582504977566344</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.003222368778722</v>
+        <v>3.209822528524114</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3889408711203259</v>
+        <v>1.160493428894547</v>
       </c>
       <c r="N9">
-        <v>0.9966822600424337</v>
+        <v>0.7005599626391259</v>
       </c>
       <c r="O9">
-        <v>1.586274988567453</v>
+        <v>1.336312224271524</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07227644189245552</v>
+        <v>0.2252208988240909</v>
       </c>
       <c r="D10">
-        <v>0.02470072906987042</v>
+        <v>0.06977439829297793</v>
       </c>
       <c r="E10">
-        <v>0.1517293986921473</v>
+        <v>0.3415015699103492</v>
       </c>
       <c r="F10">
-        <v>0.5148637661094853</v>
+        <v>0.60289981517451</v>
       </c>
       <c r="G10">
-        <v>0.3538189202284769</v>
+        <v>0.4639818197151158</v>
       </c>
       <c r="H10">
-        <v>0.4812328279991362</v>
+        <v>0.2796910790644205</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.185467595210071</v>
+        <v>3.796667290430435</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4528565501416182</v>
+        <v>1.386796382545143</v>
       </c>
       <c r="N10">
-        <v>0.9930226314058359</v>
+        <v>0.7006239850116316</v>
       </c>
       <c r="O10">
-        <v>1.606132864313366</v>
+        <v>1.521693071568336</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07701316080856202</v>
+        <v>0.2422458803619065</v>
       </c>
       <c r="D11">
-        <v>0.02620855601842464</v>
+        <v>0.07440592554328873</v>
       </c>
       <c r="E11">
-        <v>0.1574178577494152</v>
+        <v>0.3684573806696108</v>
       </c>
       <c r="F11">
-        <v>0.5212762455103501</v>
+        <v>0.6416875257894787</v>
       </c>
       <c r="G11">
-        <v>0.3588362583106175</v>
+        <v>0.4954577957252724</v>
       </c>
       <c r="H11">
-        <v>0.4810006056422509</v>
+        <v>0.2902547397101074</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.268122799173852</v>
+        <v>4.064415287322504</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.481985318237534</v>
+        <v>1.490940500257963</v>
       </c>
       <c r="N11">
-        <v>0.9917738599422563</v>
+        <v>0.701860509413379</v>
       </c>
       <c r="O11">
-        <v>1.616467793276485</v>
+        <v>1.610799572694162</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07880894957970952</v>
+        <v>0.2487278061061318</v>
       </c>
       <c r="D12">
-        <v>0.02677836814428503</v>
+        <v>0.07615988955386399</v>
       </c>
       <c r="E12">
-        <v>0.1595916350107203</v>
+        <v>0.3788253236069252</v>
       </c>
       <c r="F12">
-        <v>0.5237627280996975</v>
+        <v>0.6566207102489301</v>
       </c>
       <c r="G12">
-        <v>0.3607841664688038</v>
+        <v>0.5076095363503725</v>
       </c>
       <c r="H12">
-        <v>0.4809545117952183</v>
+        <v>0.2943818148573598</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.299385007784906</v>
+        <v>4.165952616941183</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4930232467596767</v>
+        <v>1.530578870669487</v>
       </c>
       <c r="N12">
-        <v>0.9913606766919969</v>
+        <v>0.7025139166966312</v>
       </c>
       <c r="O12">
-        <v>1.620569185373114</v>
+        <v>1.64529926236321</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07842210136438155</v>
+        <v>0.2473301790023044</v>
       </c>
       <c r="D13">
-        <v>0.02665570145543228</v>
+        <v>0.07578213224286401</v>
       </c>
       <c r="E13">
-        <v>0.1591225934657743</v>
+        <v>0.3765849465598237</v>
       </c>
       <c r="F13">
-        <v>0.5232246280284443</v>
+        <v>0.6533932904743835</v>
       </c>
       <c r="G13">
-        <v>0.3603625129534862</v>
+        <v>0.5049817192640802</v>
       </c>
       <c r="H13">
-        <v>0.4809625772627157</v>
+        <v>0.2934871610326439</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.29265382781233</v>
+        <v>4.144077636114559</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4906457004205151</v>
+        <v>1.522032599310123</v>
       </c>
       <c r="N13">
-        <v>0.9914470098437249</v>
+        <v>0.7023647659021464</v>
       </c>
       <c r="O13">
-        <v>1.619677515731127</v>
+        <v>1.637834295181335</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07716085951383889</v>
+        <v>0.2427784253762155</v>
       </c>
       <c r="D14">
-        <v>0.02625545843464749</v>
+        <v>0.07455022128217337</v>
       </c>
       <c r="E14">
-        <v>0.1575962996925568</v>
+        <v>0.3693070280255455</v>
       </c>
       <c r="F14">
-        <v>0.5214796423368142</v>
+        <v>0.6429110356684333</v>
       </c>
       <c r="G14">
-        <v>0.3589955514354131</v>
+        <v>0.4964527303601045</v>
       </c>
       <c r="H14">
-        <v>0.4809959746273051</v>
+        <v>0.2905916725355127</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.270695521681262</v>
+        <v>4.072765677117559</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4828932659091691</v>
+        <v>1.494197364513155</v>
       </c>
       <c r="N14">
-        <v>0.9917386713253649</v>
+        <v>0.7019104856187397</v>
       </c>
       <c r="O14">
-        <v>1.616801450323635</v>
+        <v>1.613622290792193</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07638858496908085</v>
+        <v>0.2399950326521463</v>
       </c>
       <c r="D15">
-        <v>0.02601014474193875</v>
+        <v>0.07379566337998256</v>
       </c>
       <c r="E15">
-        <v>0.1566639719460099</v>
+        <v>0.3648705734723379</v>
       </c>
       <c r="F15">
-        <v>0.5204183740959394</v>
+        <v>0.6365229947779767</v>
       </c>
       <c r="G15">
-        <v>0.3581645001494991</v>
+        <v>0.4912594620051465</v>
       </c>
       <c r="H15">
-        <v>0.4810218819886103</v>
+        <v>0.2888349411870763</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.257240487889135</v>
+        <v>4.029105225195622</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.478145647570031</v>
+        <v>1.477174591342319</v>
       </c>
       <c r="N15">
-        <v>0.9919250934845394</v>
+        <v>0.7016566961499393</v>
       </c>
       <c r="O15">
-        <v>1.615064250125982</v>
+        <v>1.598892494911127</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07196718034740002</v>
+        <v>0.2241129139382707</v>
       </c>
       <c r="D16">
-        <v>0.02460202728802585</v>
+        <v>0.06947171470790892</v>
       </c>
       <c r="E16">
-        <v>0.1513603836230146</v>
+        <v>0.339761304539195</v>
       </c>
       <c r="F16">
-        <v>0.5144528337568417</v>
+        <v>0.6003979403768085</v>
       </c>
       <c r="G16">
-        <v>0.3534977217451853</v>
+        <v>0.4619560359924861</v>
       </c>
       <c r="H16">
-        <v>0.4812538574534528</v>
+        <v>0.2790178892414303</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.180060725309602</v>
+        <v>3.779188009905909</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4509539740416244</v>
+        <v>1.380016847304489</v>
       </c>
       <c r="N16">
-        <v>0.9931126021730847</v>
+        <v>0.7005684388943365</v>
       </c>
       <c r="O16">
-        <v>1.605483695230589</v>
+        <v>1.515971740929587</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06925854199054982</v>
+        <v>0.2144270849549912</v>
       </c>
       <c r="D17">
-        <v>0.02373614706905869</v>
+        <v>0.06681896683689814</v>
       </c>
       <c r="E17">
-        <v>0.1481415642195572</v>
+        <v>0.3246222120847762</v>
       </c>
       <c r="F17">
-        <v>0.510896696468599</v>
+        <v>0.5786475189113105</v>
       </c>
       <c r="G17">
-        <v>0.3507199420443072</v>
+        <v>0.4443683660001057</v>
       </c>
       <c r="H17">
-        <v>0.4814706517968546</v>
+        <v>0.2732100837224749</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.132648432649376</v>
+        <v>3.626097002347024</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4342862800732092</v>
+        <v>1.320740390997216</v>
       </c>
       <c r="N17">
-        <v>0.9939475619201517</v>
+        <v>0.700218025463343</v>
       </c>
       <c r="O17">
-        <v>1.599940123085901</v>
+        <v>1.466374118941729</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06770198796246518</v>
+        <v>0.2088757019390357</v>
       </c>
       <c r="D18">
-        <v>0.02323737489859923</v>
+        <v>0.06529302664342396</v>
       </c>
       <c r="E18">
-        <v>0.1463028702815805</v>
+        <v>0.3160057969125418</v>
       </c>
       <c r="F18">
-        <v>0.5088892980744006</v>
+        <v>0.5662809438809191</v>
       </c>
       <c r="G18">
-        <v>0.349153443343809</v>
+        <v>0.4343881046093543</v>
       </c>
       <c r="H18">
-        <v>0.4816227058808664</v>
+        <v>0.2699451883116524</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.105354794669381</v>
+        <v>3.538115237056843</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4247044804933466</v>
+        <v>1.286757005724212</v>
       </c>
       <c r="N18">
-        <v>0.9944669726631048</v>
+        <v>0.7001293844386822</v>
       </c>
       <c r="O18">
-        <v>1.596874071299283</v>
+        <v>1.438291902426982</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0671752035273272</v>
+        <v>0.2069993424561289</v>
       </c>
       <c r="D19">
-        <v>0.0230683730330199</v>
+        <v>0.06477633491464729</v>
       </c>
       <c r="E19">
-        <v>0.1456824905297793</v>
+        <v>0.3131035317233781</v>
       </c>
       <c r="F19">
-        <v>0.5082161489845163</v>
+        <v>0.5621178299942073</v>
       </c>
       <c r="G19">
-        <v>0.3486284058760134</v>
+        <v>0.4310315953227786</v>
       </c>
       <c r="H19">
-        <v>0.4816788865829551</v>
+        <v>0.2688524326377291</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.096109681068754</v>
+        <v>3.50833753787191</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4214611142081708</v>
+        <v>1.275269011268307</v>
       </c>
       <c r="N19">
-        <v>0.9946495664977419</v>
+        <v>0.7001184258234048</v>
       </c>
       <c r="O19">
-        <v>1.595856973049109</v>
+        <v>1.428858122699268</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06954673813007162</v>
+        <v>0.2154560928720599</v>
       </c>
       <c r="D20">
-        <v>0.02382839841197182</v>
+        <v>0.06710136975211611</v>
       </c>
       <c r="E20">
-        <v>0.1484828981099398</v>
+        <v>0.3262242229419527</v>
       </c>
       <c r="F20">
-        <v>0.5112713196319802</v>
+        <v>0.5809478532583867</v>
       </c>
       <c r="G20">
-        <v>0.3510124098260974</v>
+        <v>0.4462263982897667</v>
       </c>
       <c r="H20">
-        <v>0.4814447417419103</v>
+        <v>0.2738204376894515</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.137697980263624</v>
+        <v>3.642386102475598</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4360600664170846</v>
+        <v>1.327038794370551</v>
       </c>
       <c r="N20">
-        <v>0.9938546266083961</v>
+        <v>0.7002435611062197</v>
       </c>
       <c r="O20">
-        <v>1.600517566653537</v>
+        <v>1.471607319776496</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07753126005673039</v>
+        <v>0.244114400378507</v>
       </c>
       <c r="D21">
-        <v>0.0263730515181777</v>
+        <v>0.07491205799569656</v>
       </c>
       <c r="E21">
-        <v>0.1580440728314514</v>
+        <v>0.3714402160030588</v>
       </c>
       <c r="F21">
-        <v>0.5219906057750023</v>
+        <v>0.6459830812271434</v>
       </c>
       <c r="G21">
-        <v>0.3593957577859896</v>
+        <v>0.4989514008792497</v>
       </c>
       <c r="H21">
-        <v>0.4809850290568818</v>
+        <v>0.2914386189307407</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.277146240429545</v>
+        <v>4.093707458398853</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4851701416323237</v>
+        <v>1.50236754235037</v>
       </c>
       <c r="N21">
-        <v>0.99165138400312</v>
+        <v>0.7020387973792594</v>
       </c>
       <c r="O21">
-        <v>1.617641119203142</v>
+        <v>1.62071281318282</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08276181689713269</v>
+        <v>0.2630501968071144</v>
       </c>
       <c r="D22">
-        <v>0.0280292984230428</v>
+        <v>0.08001756605461452</v>
       </c>
       <c r="E22">
-        <v>0.1644076987794065</v>
+        <v>0.4019363161834235</v>
       </c>
       <c r="F22">
-        <v>0.5293356743857345</v>
+        <v>0.6899281828058577</v>
       </c>
       <c r="G22">
-        <v>0.3651543721975656</v>
+        <v>0.5347771447753331</v>
       </c>
       <c r="H22">
-        <v>0.4809284965974143</v>
+        <v>0.3036978378951005</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.368064236027124</v>
+        <v>4.389546354041784</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5173100369327841</v>
+        <v>1.618143340456029</v>
       </c>
       <c r="N22">
-        <v>0.9905593584130514</v>
+        <v>0.7042973221445123</v>
       </c>
       <c r="O22">
-        <v>1.629927158225456</v>
+        <v>1.722610631566056</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07996905829364209</v>
+        <v>0.2529233996154261</v>
       </c>
       <c r="D23">
-        <v>0.02714596466051233</v>
+        <v>0.07729248282864631</v>
       </c>
       <c r="E23">
-        <v>0.1610007124011759</v>
+        <v>0.3855667493327601</v>
       </c>
       <c r="F23">
-        <v>0.5253843687306841</v>
+        <v>0.6663338644829793</v>
       </c>
       <c r="G23">
-        <v>0.3620552238124475</v>
+        <v>0.5155231771815636</v>
       </c>
       <c r="H23">
-        <v>0.480936337051034</v>
+        <v>0.2970831009035351</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.319560238449469</v>
+        <v>4.231559757019625</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5001524295051354</v>
+        <v>1.556232649321757</v>
       </c>
       <c r="N23">
-        <v>0.9911103973218616</v>
+        <v>0.7029885722604092</v>
       </c>
       <c r="O23">
-        <v>1.623269486509599</v>
+        <v>1.667794195616921</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06941644254150958</v>
+        <v>0.2149908253738886</v>
       </c>
       <c r="D24">
-        <v>0.02378669458666138</v>
+        <v>0.06697369803360687</v>
       </c>
       <c r="E24">
-        <v>0.1483285441746887</v>
+        <v>0.3254996834945914</v>
       </c>
       <c r="F24">
-        <v>0.5111018370334151</v>
+        <v>0.5799074439039629</v>
       </c>
       <c r="G24">
-        <v>0.3508800902059903</v>
+        <v>0.4453859751807698</v>
       </c>
       <c r="H24">
-        <v>0.4814563702797017</v>
+        <v>0.2735442666615882</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.135415190796323</v>
+        <v>3.635021702212782</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4352581354859097</v>
+        <v>1.324190991098021</v>
       </c>
       <c r="N24">
-        <v>0.9938965199806802</v>
+        <v>0.700231665907296</v>
       </c>
       <c r="O24">
-        <v>1.600256127486148</v>
+        <v>1.469240048979515</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05808663120554058</v>
+        <v>0.1748099569023083</v>
       </c>
       <c r="D25">
-        <v>0.0201349835719995</v>
+        <v>0.05583642347865236</v>
       </c>
       <c r="E25">
-        <v>0.1351433910557773</v>
+        <v>0.2641298040498938</v>
       </c>
       <c r="F25">
-        <v>0.4971478320345923</v>
+        <v>0.4920953679216566</v>
       </c>
       <c r="G25">
-        <v>0.3400178921582011</v>
+        <v>0.3748406267484512</v>
       </c>
       <c r="H25">
-        <v>0.4830631421126128</v>
+        <v>0.2510085283781507</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9358988005172364</v>
+        <v>2.994202328917851</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3654513113842697</v>
+        <v>1.07803667388611</v>
       </c>
       <c r="N25">
-        <v>0.9983996520453289</v>
+        <v>0.7015347244647501</v>
       </c>
       <c r="O25">
-        <v>1.580111798433819</v>
+        <v>1.271838872676085</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1456996119293592</v>
+        <v>0.09036960552766971</v>
       </c>
       <c r="D2">
-        <v>0.04761821860033422</v>
+        <v>0.0678855133488625</v>
       </c>
       <c r="E2">
-        <v>0.2212442221054616</v>
+        <v>0.1677546652285429</v>
       </c>
       <c r="F2">
-        <v>0.4312957183539865</v>
+        <v>0.7961247484921614</v>
       </c>
       <c r="G2">
-        <v>0.3265110384351857</v>
+        <v>0.9034033742346992</v>
       </c>
       <c r="H2">
-        <v>0.236519726374965</v>
+        <v>0.01551350861172848</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01338024669815319</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.555328745294176</v>
       </c>
       <c r="K2">
-        <v>2.523427253168592</v>
+        <v>0.6252350107190026</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.314376411280378</v>
       </c>
       <c r="M2">
-        <v>0.8993521136022764</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7057842980961908</v>
+        <v>0.4088838701190127</v>
       </c>
       <c r="O2">
-        <v>1.138525519576689</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>32.02744441378945</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.126195204785347</v>
+        <v>0.08101390843432199</v>
       </c>
       <c r="D3">
-        <v>0.04203215050515752</v>
+        <v>0.06029792975026282</v>
       </c>
       <c r="E3">
-        <v>0.1933281519321071</v>
+        <v>0.1490561610798977</v>
       </c>
       <c r="F3">
-        <v>0.3921321818953345</v>
+        <v>0.7496197088099592</v>
       </c>
       <c r="G3">
-        <v>0.295655450770326</v>
+        <v>0.8172680838604265</v>
       </c>
       <c r="H3">
-        <v>0.2278533600788961</v>
+        <v>0.006224044989690231</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.005578088214972965</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5290589102477554</v>
       </c>
       <c r="K3">
-        <v>2.204497132614847</v>
+        <v>0.5872718139461881</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2789994262977586</v>
       </c>
       <c r="M3">
-        <v>0.7794021428392384</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7105404170120977</v>
+        <v>0.3569456806241789</v>
       </c>
       <c r="O3">
-        <v>1.054594542577462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>27.55633785891155</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1143078949596656</v>
+        <v>0.07535183426913505</v>
       </c>
       <c r="D4">
-        <v>0.03859258096196072</v>
+        <v>0.05559882218753387</v>
       </c>
       <c r="E4">
-        <v>0.1766671984034147</v>
+        <v>0.13751861969644</v>
       </c>
       <c r="F4">
-        <v>0.3689808725757615</v>
+        <v>0.7265918355411998</v>
       </c>
       <c r="G4">
-        <v>0.2775373491228308</v>
+        <v>0.7700395458350471</v>
       </c>
       <c r="H4">
-        <v>0.2230519760242302</v>
+        <v>0.002605114551032572</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.002546144907074499</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5157361649546175</v>
       </c>
       <c r="K4">
-        <v>2.008571878595376</v>
+        <v>0.5674478927397217</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2572664304724555</v>
       </c>
       <c r="M4">
-        <v>0.7061829996837332</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.714332439447972</v>
+        <v>0.3254478790641713</v>
       </c>
       <c r="O4">
-        <v>1.005892729858317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>24.87999957062164</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1094829496499727</v>
+        <v>0.07325752864053214</v>
       </c>
       <c r="D5">
-        <v>0.03718829818446068</v>
+        <v>0.05359513683355743</v>
       </c>
       <c r="E5">
-        <v>0.1699863662595362</v>
+        <v>0.1328377342200859</v>
       </c>
       <c r="F5">
-        <v>0.359756116311317</v>
+        <v>0.7171859681418766</v>
       </c>
       <c r="G5">
-        <v>0.270346938712386</v>
+        <v>0.7505261125595695</v>
       </c>
       <c r="H5">
-        <v>0.2212192536150397</v>
+        <v>0.001572923285456107</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001750529091963049</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.510168953452478</v>
       </c>
       <c r="K5">
-        <v>1.928684690576688</v>
+        <v>0.5589542044038325</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2486159091116349</v>
       </c>
       <c r="M5">
-        <v>0.6764355988224011</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7160894289636559</v>
+        <v>0.3124003422556854</v>
       </c>
       <c r="O5">
-        <v>0.9867120167327812</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>23.80267524307902</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1086828471554213</v>
+        <v>0.07315112533670742</v>
       </c>
       <c r="D6">
-        <v>0.0369549539207128</v>
+        <v>0.05316564266319546</v>
       </c>
       <c r="E6">
-        <v>0.168883244218982</v>
+        <v>0.1321039223085663</v>
       </c>
       <c r="F6">
-        <v>0.3582365716022338</v>
+        <v>0.7141958153725625</v>
       </c>
       <c r="G6">
-        <v>0.2691641953418227</v>
+        <v>0.7455386720728399</v>
       </c>
       <c r="H6">
-        <v>0.2209222203593129</v>
+        <v>0.00142277561580717</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.00171628393291634</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5083597752672375</v>
       </c>
       <c r="K6">
-        <v>1.915416123818716</v>
+        <v>0.5561580136019231</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2474422899213948</v>
       </c>
       <c r="M6">
-        <v>0.6715009867285247</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7163937513123102</v>
+        <v>0.3098952643134538</v>
       </c>
       <c r="O6">
-        <v>0.9835659630433184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>23.62438486728462</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1142427500809475</v>
+        <v>0.07597983773774075</v>
       </c>
       <c r="D7">
-        <v>0.03857365320592265</v>
+        <v>0.05530765337216792</v>
       </c>
       <c r="E7">
-        <v>0.1765766737870038</v>
+        <v>0.1375776897670988</v>
       </c>
       <c r="F7">
-        <v>0.3688556356371748</v>
+        <v>0.7223536628504803</v>
       </c>
       <c r="G7">
-        <v>0.2774396153565277</v>
+        <v>0.7647843636832192</v>
       </c>
       <c r="H7">
-        <v>0.223026766475769</v>
+        <v>0.002575573507217654</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.002718141267292751</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5131355577383374</v>
       </c>
       <c r="K7">
-        <v>2.00749470487554</v>
+        <v>0.5634065860775337</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2578722731819454</v>
       </c>
       <c r="M7">
-        <v>0.705781474845331</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7143552872149712</v>
+        <v>0.3243362502842331</v>
       </c>
       <c r="O7">
-        <v>1.005631416547544</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>24.8650936277279</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1389542619916568</v>
+        <v>0.0879972571103238</v>
       </c>
       <c r="D8">
-        <v>0.04569403518220128</v>
+        <v>0.06492187460314369</v>
       </c>
       <c r="E8">
-        <v>0.2115117867664509</v>
+        <v>0.1614836792990317</v>
       </c>
       <c r="F8">
-        <v>0.4175967235508651</v>
+        <v>0.7732892912134872</v>
       </c>
       <c r="G8">
-        <v>0.3156909328889981</v>
+        <v>0.8656632135815272</v>
       </c>
       <c r="H8">
-        <v>0.2334194598936108</v>
+        <v>0.01178783841859903</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0104607120768252</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5422337333158396</v>
       </c>
       <c r="K8">
-        <v>2.413468106549828</v>
+        <v>0.6060444165783778</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3031452835135866</v>
       </c>
       <c r="M8">
-        <v>0.8578926088744083</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7072386307351053</v>
+        <v>0.3896290911061726</v>
       </c>
       <c r="O8">
-        <v>1.108969574966068</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>30.46828336499271</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1882611361044297</v>
+        <v>0.1111869496055249</v>
       </c>
       <c r="D9">
-        <v>0.0595900520510213</v>
+        <v>0.08394048344034388</v>
       </c>
       <c r="E9">
-        <v>0.2844043526893003</v>
+        <v>0.2077944459852077</v>
       </c>
       <c r="F9">
-        <v>0.5210250420352551</v>
+        <v>0.9349980725912701</v>
       </c>
       <c r="G9">
-        <v>0.3979929540252698</v>
+        <v>1.128973269376104</v>
       </c>
       <c r="H9">
-        <v>0.2582504977566344</v>
+        <v>0.05092264393219126</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.04269071560425886</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6312772769484241</v>
       </c>
       <c r="K9">
-        <v>3.209822528524114</v>
+        <v>0.731377776425596</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3909642286995307</v>
       </c>
       <c r="M9">
-        <v>1.160493428894547</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7005599626391259</v>
+        <v>0.5243648283629057</v>
       </c>
       <c r="O9">
-        <v>1.336312224271524</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>42.23462835260312</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2252208988240909</v>
+        <v>0.1302069144587819</v>
       </c>
       <c r="D10">
-        <v>0.06977439829297793</v>
+        <v>0.09847195081799498</v>
       </c>
       <c r="E10">
-        <v>0.3415015699103492</v>
+        <v>0.2472973129680796</v>
       </c>
       <c r="F10">
-        <v>0.60289981517451</v>
+        <v>1.079963801218483</v>
       </c>
       <c r="G10">
-        <v>0.4639818197151158</v>
+        <v>1.349357185377357</v>
       </c>
       <c r="H10">
-        <v>0.2796910790644205</v>
+        <v>0.1003229298360453</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.08267801743290626</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.7083984622340722</v>
       </c>
       <c r="K10">
-        <v>3.796667290430435</v>
+        <v>0.8369385917828538</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4689570357666355</v>
       </c>
       <c r="M10">
-        <v>1.386796382545143</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7006239850116316</v>
+        <v>0.6432084985998898</v>
       </c>
       <c r="O10">
-        <v>1.521693071568336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>51.79536752186556</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2422458803619065</v>
+        <v>0.1490987757204749</v>
       </c>
       <c r="D11">
-        <v>0.07440592554328873</v>
+        <v>0.1126797615305151</v>
       </c>
       <c r="E11">
-        <v>0.3684573806696108</v>
+        <v>0.3160807448461611</v>
       </c>
       <c r="F11">
-        <v>0.6416875257894787</v>
+        <v>0.9530092983293059</v>
       </c>
       <c r="G11">
-        <v>0.4954577957252724</v>
+        <v>1.240174358838374</v>
       </c>
       <c r="H11">
-        <v>0.2902547397101074</v>
+        <v>0.1429465019884759</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1038279610874024</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.6368251965709533</v>
       </c>
       <c r="K11">
-        <v>4.064415287322504</v>
+        <v>0.7360359809819528</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.6192468935644087</v>
       </c>
       <c r="M11">
-        <v>1.490940500257963</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.701860509413379</v>
+        <v>0.8253960995555474</v>
       </c>
       <c r="O11">
-        <v>1.610799572694162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>56.45524769790899</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2487278061061318</v>
+        <v>0.1608475853337268</v>
       </c>
       <c r="D12">
-        <v>0.07615988955386399</v>
+        <v>0.1226269829126352</v>
       </c>
       <c r="E12">
-        <v>0.3788253236069252</v>
+        <v>0.3709320709442281</v>
       </c>
       <c r="F12">
-        <v>0.6566207102489301</v>
+        <v>0.8254306792417481</v>
       </c>
       <c r="G12">
-        <v>0.5076095363503725</v>
+        <v>1.111428893516489</v>
       </c>
       <c r="H12">
-        <v>0.2943818148573598</v>
+        <v>0.1910630367724693</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1119315238531238</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5649261368472764</v>
       </c>
       <c r="K12">
-        <v>4.165952616941183</v>
+        <v>0.6378871130294286</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.7414892148309349</v>
       </c>
       <c r="M12">
-        <v>1.530578870669487</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7025139166966312</v>
+        <v>0.9688850912021962</v>
       </c>
       <c r="O12">
-        <v>1.64529926236321</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>58.27598203392984</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2473301790023044</v>
+        <v>0.168729211673309</v>
       </c>
       <c r="D13">
-        <v>0.07578213224286401</v>
+        <v>0.1292911719527865</v>
       </c>
       <c r="E13">
-        <v>0.3765849465598237</v>
+        <v>0.41766649296693</v>
       </c>
       <c r="F13">
-        <v>0.6533932904743835</v>
+        <v>0.6794436059866342</v>
       </c>
       <c r="G13">
-        <v>0.5049817192640802</v>
+        <v>0.9477705257342421</v>
       </c>
       <c r="H13">
-        <v>0.2934871610326439</v>
+        <v>0.2428716302723757</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1085669712723778</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4826796271930505</v>
       </c>
       <c r="K13">
-        <v>4.144077636114559</v>
+        <v>0.5275580784107348</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.8486314188969288</v>
       </c>
       <c r="M13">
-        <v>1.522032599310123</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7023647659021464</v>
+        <v>1.08618544352214</v>
       </c>
       <c r="O13">
-        <v>1.637834295181335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>57.85251576238585</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2427784253762155</v>
+        <v>0.1728392019721952</v>
       </c>
       <c r="D14">
-        <v>0.07455022128217337</v>
+        <v>0.1323578672733419</v>
       </c>
       <c r="E14">
-        <v>0.3693070280255455</v>
+        <v>0.446951146375504</v>
       </c>
       <c r="F14">
-        <v>0.6429110356684333</v>
+        <v>0.5712075113500461</v>
       </c>
       <c r="G14">
-        <v>0.4964527303601045</v>
+        <v>0.8194351162585747</v>
       </c>
       <c r="H14">
-        <v>0.2905916725355127</v>
+        <v>0.2836855978251407</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.101237800651325</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4213357348894391</v>
       </c>
       <c r="K14">
-        <v>4.072765677117559</v>
+        <v>0.4462993379733362</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.9177246342454737</v>
       </c>
       <c r="M14">
-        <v>1.494197364513155</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7019104856187397</v>
+        <v>1.156559319695646</v>
       </c>
       <c r="O14">
-        <v>1.613622290792193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>56.54594822396103</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2399950326521463</v>
+        <v>0.173248185404816</v>
       </c>
       <c r="D15">
-        <v>0.07379566337998256</v>
+        <v>0.1321704278164901</v>
       </c>
       <c r="E15">
-        <v>0.3648705734723379</v>
+        <v>0.4515628921327277</v>
       </c>
       <c r="F15">
-        <v>0.6365229947779767</v>
+        <v>0.5395937713794083</v>
       </c>
       <c r="G15">
-        <v>0.4912594620051465</v>
+        <v>0.7793249571325589</v>
       </c>
       <c r="H15">
-        <v>0.2888349411870763</v>
+        <v>0.2912044054558152</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.09716477637576659</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4034929553995994</v>
       </c>
       <c r="K15">
-        <v>4.029105225195622</v>
+        <v>0.4226588045445965</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.9296905742916692</v>
       </c>
       <c r="M15">
-        <v>1.477174591342319</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7016566961499393</v>
+        <v>1.165389909394634</v>
       </c>
       <c r="O15">
-        <v>1.598892494911127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>55.75989514269787</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2241129139382707</v>
+        <v>0.1636624311314137</v>
       </c>
       <c r="D16">
-        <v>0.06947171470790892</v>
+        <v>0.1239985427177572</v>
       </c>
       <c r="E16">
-        <v>0.339761304539195</v>
+        <v>0.4228954357025074</v>
       </c>
       <c r="F16">
-        <v>0.6003979403768085</v>
+        <v>0.4979924189838201</v>
       </c>
       <c r="G16">
-        <v>0.4619560359924861</v>
+        <v>0.7080405686188556</v>
       </c>
       <c r="H16">
-        <v>0.2790178892414303</v>
+        <v>0.2518823912707546</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.07625309638525124</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3826018857077003</v>
       </c>
       <c r="K16">
-        <v>3.779188009905909</v>
+        <v>0.394390806753826</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.8697483295633504</v>
       </c>
       <c r="M16">
-        <v>1.380016847304489</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7005684388943365</v>
+        <v>1.081133843427494</v>
       </c>
       <c r="O16">
-        <v>1.515971740929587</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>51.40407112900743</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2144270849549912</v>
+        <v>0.154117907338744</v>
       </c>
       <c r="D17">
-        <v>0.06681896683689814</v>
+        <v>0.1161504919710552</v>
       </c>
       <c r="E17">
-        <v>0.3246222120847762</v>
+        <v>0.3854774004946719</v>
       </c>
       <c r="F17">
-        <v>0.5786475189113105</v>
+        <v>0.5242231499409371</v>
       </c>
       <c r="G17">
-        <v>0.4443683660001057</v>
+        <v>0.7223540809359861</v>
       </c>
       <c r="H17">
-        <v>0.2732100837224749</v>
+        <v>0.1998254282358545</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.06521858521409474</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3994838981905673</v>
       </c>
       <c r="K17">
-        <v>3.626097002347024</v>
+        <v>0.4158620816890135</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.787262700151345</v>
       </c>
       <c r="M17">
-        <v>1.320740390997216</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.700218025463343</v>
+        <v>0.9801432161377477</v>
       </c>
       <c r="O17">
-        <v>1.466374118941729</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>48.83915193826834</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2088757019390357</v>
+        <v>0.1431655270604466</v>
       </c>
       <c r="D18">
-        <v>0.06529302664342396</v>
+        <v>0.1081580259690185</v>
       </c>
       <c r="E18">
-        <v>0.3160057969125418</v>
+        <v>0.3382955367795972</v>
       </c>
       <c r="F18">
-        <v>0.5662809438809191</v>
+        <v>0.6145663169111941</v>
       </c>
       <c r="G18">
-        <v>0.4343881046093543</v>
+        <v>0.8144387139645488</v>
       </c>
       <c r="H18">
-        <v>0.2699451883116524</v>
+        <v>0.1401145432079502</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.05972993723682674</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4521391569210209</v>
       </c>
       <c r="K18">
-        <v>3.538115237056843</v>
+        <v>0.4856530680901159</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.6804965254233508</v>
       </c>
       <c r="M18">
-        <v>1.286757005724212</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7001293844386822</v>
+        <v>0.859073016794639</v>
       </c>
       <c r="O18">
-        <v>1.438291902426982</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>47.40478531836231</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2069993424561289</v>
+        <v>0.1340544981564875</v>
       </c>
       <c r="D19">
-        <v>0.06477633491464729</v>
+        <v>0.1002858631085815</v>
       </c>
       <c r="E19">
-        <v>0.3131035317233781</v>
+        <v>0.289920199480278</v>
       </c>
       <c r="F19">
-        <v>0.5621178299942073</v>
+        <v>0.75031974616995</v>
       </c>
       <c r="G19">
-        <v>0.4310315953227786</v>
+        <v>0.9601261689212919</v>
       </c>
       <c r="H19">
-        <v>0.2688524326377291</v>
+        <v>0.09428652739463672</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.05893848975983484</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5283799415142312</v>
       </c>
       <c r="K19">
-        <v>3.50833753787191</v>
+        <v>0.5882123634949252</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.571195990348528</v>
       </c>
       <c r="M19">
-        <v>1.275269011268307</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7001184258234048</v>
+        <v>0.7355989024113256</v>
       </c>
       <c r="O19">
-        <v>1.428858122699268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>46.93927917206025</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2154560928720599</v>
+        <v>0.1273108999162105</v>
       </c>
       <c r="D20">
-        <v>0.06710136975211611</v>
+        <v>0.09382670463323706</v>
       </c>
       <c r="E20">
-        <v>0.3262242229419527</v>
+        <v>0.2375206835630124</v>
       </c>
       <c r="F20">
-        <v>0.5809478532583867</v>
+        <v>1.022451226918463</v>
       </c>
       <c r="G20">
-        <v>0.4462263982897667</v>
+        <v>1.268616332208239</v>
       </c>
       <c r="H20">
-        <v>0.2738204376894515</v>
+        <v>0.08506859381514875</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.07084735123497499</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6768800063931621</v>
       </c>
       <c r="K20">
-        <v>3.642386102475598</v>
+        <v>0.7922462949850058</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4511550714447026</v>
       </c>
       <c r="M20">
-        <v>1.327038794370551</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7002435611062197</v>
+        <v>0.6087858770698915</v>
       </c>
       <c r="O20">
-        <v>1.471607319776496</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>49.18695343519192</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.244114400378507</v>
+        <v>0.1402866543593575</v>
       </c>
       <c r="D21">
-        <v>0.07491205799569656</v>
+        <v>0.1037251947149258</v>
       </c>
       <c r="E21">
-        <v>0.3714402160030588</v>
+        <v>0.2596537530131329</v>
       </c>
       <c r="F21">
-        <v>0.6459830812271434</v>
+        <v>1.198711762550019</v>
       </c>
       <c r="G21">
-        <v>0.4989514008792497</v>
+        <v>1.507670898704049</v>
       </c>
       <c r="H21">
-        <v>0.2914386189307407</v>
+        <v>0.1344228558487042</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.1098760347244037</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7701654398177311</v>
       </c>
       <c r="K21">
-        <v>4.093707458398853</v>
+        <v>0.9200719165358606</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4931091445795772</v>
       </c>
       <c r="M21">
-        <v>1.50236754235037</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7020387973792594</v>
+        <v>0.6839916515153845</v>
       </c>
       <c r="O21">
-        <v>1.62071281318282</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>57.0399848370065</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2630501968071144</v>
+        <v>0.1485838369472532</v>
       </c>
       <c r="D22">
-        <v>0.08001756605461452</v>
+        <v>0.1109758617691909</v>
       </c>
       <c r="E22">
-        <v>0.4019363161834235</v>
+        <v>0.276885894923339</v>
       </c>
       <c r="F22">
-        <v>0.6899281828058577</v>
+        <v>1.328196008851805</v>
       </c>
       <c r="G22">
-        <v>0.5347771447753331</v>
+        <v>1.680113947390169</v>
       </c>
       <c r="H22">
-        <v>0.3036978378951005</v>
+        <v>0.1753306223847102</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1416914173525097</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.8381854478982405</v>
       </c>
       <c r="K22">
-        <v>4.389546354041784</v>
+        <v>1.013536477188481</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5265469460064196</v>
       </c>
       <c r="M22">
-        <v>1.618143340456029</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7042973221445123</v>
+        <v>0.7448767035137962</v>
       </c>
       <c r="O22">
-        <v>1.722610631566056</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>62.61447439479804</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2529233996154261</v>
+        <v>0.1433412768636231</v>
       </c>
       <c r="D23">
-        <v>0.07729248282864631</v>
+        <v>0.1074440879473713</v>
       </c>
       <c r="E23">
-        <v>0.3855667493327601</v>
+        <v>0.2674994744273036</v>
       </c>
       <c r="F23">
-        <v>0.6663338644829793</v>
+        <v>1.262217299079879</v>
       </c>
       <c r="G23">
-        <v>0.5155231771815636</v>
+        <v>1.592234769154089</v>
       </c>
       <c r="H23">
-        <v>0.2970831009035351</v>
+        <v>0.152641975042473</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1239691665820404</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.8040717549329202</v>
       </c>
       <c r="K23">
-        <v>4.231559757019625</v>
+        <v>0.9673588464306988</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.507680788450358</v>
       </c>
       <c r="M23">
-        <v>1.556232649321757</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7029885722604092</v>
+        <v>0.7130628175767839</v>
       </c>
       <c r="O23">
-        <v>1.667794195616921</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>59.5904231482188</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2149908253738886</v>
+        <v>0.1251158826378287</v>
       </c>
       <c r="D24">
-        <v>0.06697369803360687</v>
+        <v>0.09347571502597418</v>
       </c>
       <c r="E24">
-        <v>0.3254996834945914</v>
+        <v>0.2326935044216683</v>
       </c>
       <c r="F24">
-        <v>0.5799074439039629</v>
+        <v>1.046662959750179</v>
       </c>
       <c r="G24">
-        <v>0.4453859751807698</v>
+        <v>1.294943029077473</v>
       </c>
       <c r="H24">
-        <v>0.2735442666615882</v>
+        <v>0.08491693915501486</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.07036592894714566</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6905653661316649</v>
       </c>
       <c r="K24">
-        <v>3.635021702212782</v>
+        <v>0.8121867000426732</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4397176752716803</v>
       </c>
       <c r="M24">
-        <v>1.324190991098021</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.700231665907296</v>
+        <v>0.5987454017512732</v>
       </c>
       <c r="O24">
-        <v>1.469240048979515</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>49.06974749787912</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1748099569023083</v>
+        <v>0.1060119049844488</v>
       </c>
       <c r="D25">
-        <v>0.05583642347865236</v>
+        <v>0.07833275897289838</v>
       </c>
       <c r="E25">
-        <v>0.2641298040498938</v>
+        <v>0.1955163189535014</v>
       </c>
       <c r="F25">
-        <v>0.4920953679216566</v>
+        <v>0.8759930647777168</v>
       </c>
       <c r="G25">
-        <v>0.3748406267484512</v>
+        <v>1.040403988313813</v>
       </c>
       <c r="H25">
-        <v>0.2510085283781507</v>
+        <v>0.03726826098447256</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.03177288307680737</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5986837121081123</v>
       </c>
       <c r="K25">
-        <v>2.994202328917851</v>
+        <v>0.6852232051562126</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3684377206005109</v>
       </c>
       <c r="M25">
-        <v>1.07803667388611</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7015347244647501</v>
+        <v>0.4853549885477833</v>
       </c>
       <c r="O25">
-        <v>1.271838872676085</v>
+        <v>38.9290596970597</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.09036960552766971</v>
+        <v>0.1161093440439629</v>
       </c>
       <c r="D2">
-        <v>0.0678855133488625</v>
+        <v>0.0570263878078805</v>
       </c>
       <c r="E2">
-        <v>0.1677546652285429</v>
+        <v>0.1724345937526408</v>
       </c>
       <c r="F2">
-        <v>0.7961247484921614</v>
+        <v>0.6453110349992599</v>
       </c>
       <c r="G2">
-        <v>0.9034033742346992</v>
+        <v>0.6968427756156927</v>
       </c>
       <c r="H2">
-        <v>0.01551350861172848</v>
+        <v>0.01355198673492769</v>
       </c>
       <c r="I2">
-        <v>0.01338024669815319</v>
+        <v>0.01110041386811123</v>
       </c>
       <c r="J2">
-        <v>0.555328745294176</v>
+        <v>0.5125879162655451</v>
       </c>
       <c r="K2">
-        <v>0.6252350107190026</v>
+        <v>0.4812289553148545</v>
       </c>
       <c r="L2">
-        <v>0.314376411280378</v>
+        <v>0.2484938059785406</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1338721441691497</v>
       </c>
       <c r="N2">
-        <v>0.4088838701190127</v>
+        <v>0.3436783926120341</v>
       </c>
       <c r="O2">
-        <v>32.02744441378945</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.372470852513743</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>31.99796958243167</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.08101390843432199</v>
+        <v>0.1001401987286812</v>
       </c>
       <c r="D3">
-        <v>0.06029792975026282</v>
+        <v>0.05169625057541083</v>
       </c>
       <c r="E3">
-        <v>0.1490561610798977</v>
+        <v>0.1529912396184443</v>
       </c>
       <c r="F3">
-        <v>0.7496197088099592</v>
+        <v>0.6214763649088724</v>
       </c>
       <c r="G3">
-        <v>0.8172680838604265</v>
+        <v>0.6402884449196478</v>
       </c>
       <c r="H3">
-        <v>0.006224044989690231</v>
+        <v>0.005701381892046081</v>
       </c>
       <c r="I3">
-        <v>0.005578088214972965</v>
+        <v>0.005131123483232081</v>
       </c>
       <c r="J3">
-        <v>0.5290589102477554</v>
+        <v>0.494864325350278</v>
       </c>
       <c r="K3">
-        <v>0.5872718139461881</v>
+        <v>0.4637515892981838</v>
       </c>
       <c r="L3">
-        <v>0.2789994262977586</v>
+        <v>0.248292741198533</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1184483180842584</v>
       </c>
       <c r="N3">
-        <v>0.3569456806241789</v>
+        <v>0.3032144215009254</v>
       </c>
       <c r="O3">
-        <v>27.55633785891155</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3266049314946002</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>27.54673747498379</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.07535183426913505</v>
+        <v>0.09060756575818374</v>
       </c>
       <c r="D4">
-        <v>0.05559882218753387</v>
+        <v>0.04837889641210324</v>
       </c>
       <c r="E4">
-        <v>0.13751861969644</v>
+        <v>0.1410405192645143</v>
       </c>
       <c r="F4">
-        <v>0.7265918355411998</v>
+        <v>0.610841607708231</v>
       </c>
       <c r="G4">
-        <v>0.7700395458350471</v>
+        <v>0.6101415873716149</v>
       </c>
       <c r="H4">
-        <v>0.002605114551032572</v>
+        <v>0.00255237402273778</v>
       </c>
       <c r="I4">
-        <v>0.002546144907074499</v>
+        <v>0.002683445375242233</v>
       </c>
       <c r="J4">
-        <v>0.5157361649546175</v>
+        <v>0.4852277130076885</v>
       </c>
       <c r="K4">
-        <v>0.5674478927397217</v>
+        <v>0.455176322901174</v>
       </c>
       <c r="L4">
-        <v>0.2572664304724555</v>
+        <v>0.2482666146801265</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1112699469009399</v>
       </c>
       <c r="N4">
-        <v>0.3254478790641713</v>
+        <v>0.2784373109278988</v>
       </c>
       <c r="O4">
-        <v>24.87999957062164</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2990694358089883</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>24.87875637596238</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.07325752864053214</v>
+        <v>0.08702378495632246</v>
       </c>
       <c r="D5">
-        <v>0.05359513683355743</v>
+        <v>0.04694929872122344</v>
       </c>
       <c r="E5">
-        <v>0.1328377342200859</v>
+        <v>0.1361989317199743</v>
       </c>
       <c r="F5">
-        <v>0.7171859681418766</v>
+        <v>0.6063740896900427</v>
       </c>
       <c r="G5">
-        <v>0.7505261125595695</v>
+        <v>0.5976321516893961</v>
       </c>
       <c r="H5">
-        <v>0.001572923285456107</v>
+        <v>0.001624647535795609</v>
       </c>
       <c r="I5">
-        <v>0.001750529091963049</v>
+        <v>0.002022277166314979</v>
       </c>
       <c r="J5">
-        <v>0.510168953452478</v>
+        <v>0.4809285500115408</v>
       </c>
       <c r="K5">
-        <v>0.5589542044038325</v>
+        <v>0.4512162406508651</v>
       </c>
       <c r="L5">
-        <v>0.2486159091116349</v>
+        <v>0.247856151597226</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1085732574598204</v>
       </c>
       <c r="N5">
-        <v>0.3124003422556854</v>
+        <v>0.2685562893092879</v>
       </c>
       <c r="O5">
-        <v>23.80267524307902</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2877185784127505</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>23.80411217776566</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.07315112533670742</v>
+        <v>0.08672717266347263</v>
       </c>
       <c r="D6">
-        <v>0.05316564266319546</v>
+        <v>0.04662973366757228</v>
       </c>
       <c r="E6">
-        <v>0.1321039223085663</v>
+        <v>0.13543655845708</v>
       </c>
       <c r="F6">
-        <v>0.7141958153725625</v>
+        <v>0.6044496583581349</v>
       </c>
       <c r="G6">
-        <v>0.7455386720728399</v>
+        <v>0.5941266433692647</v>
       </c>
       <c r="H6">
-        <v>0.00142277561580717</v>
+        <v>0.001487423277923394</v>
       </c>
       <c r="I6">
-        <v>0.00171628393291634</v>
+        <v>0.002021218093060995</v>
       </c>
       <c r="J6">
-        <v>0.5083597752672375</v>
+        <v>0.4794449004382955</v>
       </c>
       <c r="K6">
-        <v>0.5561580136019231</v>
+        <v>0.4494463440742535</v>
       </c>
       <c r="L6">
-        <v>0.2474422899213948</v>
+        <v>0.2472827884438331</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1078010762290695</v>
       </c>
       <c r="N6">
-        <v>0.3098952643134538</v>
+        <v>0.2671692803399566</v>
       </c>
       <c r="O6">
-        <v>23.62438486728462</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2855376472994209</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>23.62624341848584</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.07597983773774075</v>
+        <v>0.09107871737155193</v>
       </c>
       <c r="D7">
-        <v>0.05530765337216792</v>
+        <v>0.04791708291828911</v>
       </c>
       <c r="E7">
-        <v>0.1375776897670988</v>
+        <v>0.1409593418339057</v>
       </c>
       <c r="F7">
-        <v>0.7223536628504803</v>
+        <v>0.6054763575265412</v>
       </c>
       <c r="G7">
-        <v>0.7647843636832192</v>
+        <v>0.6089887326697436</v>
       </c>
       <c r="H7">
-        <v>0.002575573507217654</v>
+        <v>0.002520540494757639</v>
       </c>
       <c r="I7">
-        <v>0.002718141267292751</v>
+        <v>0.002897687272382043</v>
       </c>
       <c r="J7">
-        <v>0.5131355577383374</v>
+        <v>0.4758970485594887</v>
       </c>
       <c r="K7">
-        <v>0.5634065860775337</v>
+        <v>0.4506074191499181</v>
       </c>
       <c r="L7">
-        <v>0.2578722731819454</v>
+        <v>0.2462914687783737</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1097904068935129</v>
       </c>
       <c r="N7">
-        <v>0.3243362502842331</v>
+        <v>0.2790573209602627</v>
       </c>
       <c r="O7">
-        <v>24.8650936277279</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.298125777426975</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>24.86379017705485</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0879972571103238</v>
+        <v>0.1106541965222476</v>
       </c>
       <c r="D8">
-        <v>0.06492187460314369</v>
+        <v>0.05416926273953493</v>
       </c>
       <c r="E8">
-        <v>0.1614836792990317</v>
+        <v>0.1654522433472749</v>
       </c>
       <c r="F8">
-        <v>0.7732892912134872</v>
+        <v>0.6252479941141615</v>
       </c>
       <c r="G8">
-        <v>0.8656632135815272</v>
+        <v>0.6813203191135102</v>
       </c>
       <c r="H8">
-        <v>0.01178783841859903</v>
+        <v>0.01038783796895178</v>
       </c>
       <c r="I8">
-        <v>0.0104607120768252</v>
+        <v>0.008963957175058823</v>
       </c>
       <c r="J8">
-        <v>0.5422337333158396</v>
+        <v>0.4796751526125007</v>
       </c>
       <c r="K8">
-        <v>0.6060444165783778</v>
+        <v>0.4659050273030658</v>
       </c>
       <c r="L8">
-        <v>0.3031452835135866</v>
+        <v>0.2447777780281157</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1250007126013628</v>
       </c>
       <c r="N8">
-        <v>0.3896290911061726</v>
+        <v>0.3308436843051652</v>
       </c>
       <c r="O8">
-        <v>30.46828336499271</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3555331617914135</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>30.44607184756728</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1111869496055249</v>
+        <v>0.1511614216810671</v>
       </c>
       <c r="D9">
-        <v>0.08394048344034388</v>
+        <v>0.0672714270481336</v>
       </c>
       <c r="E9">
-        <v>0.2077944459852077</v>
+        <v>0.2138420572128652</v>
       </c>
       <c r="F9">
-        <v>0.9349980725912701</v>
+        <v>0.7159692153036303</v>
       </c>
       <c r="G9">
-        <v>1.128973269376104</v>
+        <v>0.8645933738069829</v>
       </c>
       <c r="H9">
-        <v>0.05092264393219126</v>
+        <v>0.04261859825381065</v>
       </c>
       <c r="I9">
-        <v>0.04269071560425886</v>
+        <v>0.03241292660069561</v>
       </c>
       <c r="J9">
-        <v>0.6312772769484241</v>
+        <v>0.5282849767726248</v>
       </c>
       <c r="K9">
-        <v>0.731377776425596</v>
+        <v>0.5277858024385367</v>
       </c>
       <c r="L9">
-        <v>0.3909642286995307</v>
+        <v>0.2475859956606925</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1797895378690271</v>
       </c>
       <c r="N9">
-        <v>0.5243648283629057</v>
+        <v>0.4319961767788385</v>
       </c>
       <c r="O9">
-        <v>42.23462835260312</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4768307667500693</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>42.12591540298837</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1302069144587819</v>
+        <v>0.1825198618252557</v>
       </c>
       <c r="D10">
-        <v>0.09847195081799498</v>
+        <v>0.07624168052792157</v>
       </c>
       <c r="E10">
-        <v>0.2472973129680796</v>
+        <v>0.2545018319316981</v>
       </c>
       <c r="F10">
-        <v>1.079963801218483</v>
+        <v>0.7882171765962624</v>
       </c>
       <c r="G10">
-        <v>1.349357185377357</v>
+        <v>1.041402088690702</v>
       </c>
       <c r="H10">
-        <v>0.1003229298360453</v>
+        <v>0.08234983192010503</v>
       </c>
       <c r="I10">
-        <v>0.08267801743290626</v>
+        <v>0.06047400241525924</v>
       </c>
       <c r="J10">
-        <v>0.7083984622340722</v>
+        <v>0.5232352242446723</v>
       </c>
       <c r="K10">
-        <v>0.8369385917828538</v>
+        <v>0.5713794037182609</v>
       </c>
       <c r="L10">
-        <v>0.4689570357666355</v>
+        <v>0.2434663163077033</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2299233974824304</v>
       </c>
       <c r="N10">
-        <v>0.6432084985998898</v>
+        <v>0.520794243958008</v>
       </c>
       <c r="O10">
-        <v>51.79536752186556</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5883213078515723</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>51.55875962192812</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1490987757204749</v>
+        <v>0.2026306990145628</v>
       </c>
       <c r="D11">
-        <v>0.1126797615305151</v>
+        <v>0.0862658848745852</v>
       </c>
       <c r="E11">
-        <v>0.3160807448461611</v>
+        <v>0.3219355291004931</v>
       </c>
       <c r="F11">
-        <v>0.9530092983293059</v>
+        <v>0.6606386316149013</v>
       </c>
       <c r="G11">
-        <v>1.240174358838374</v>
+        <v>0.9993461602286686</v>
       </c>
       <c r="H11">
-        <v>0.1429465019884759</v>
+        <v>0.1197447439132588</v>
       </c>
       <c r="I11">
-        <v>0.1038279610874024</v>
+        <v>0.07515272399818063</v>
       </c>
       <c r="J11">
-        <v>0.6368251965709533</v>
+        <v>0.3836179233105952</v>
       </c>
       <c r="K11">
-        <v>0.7360359809819528</v>
+        <v>0.4764337216300447</v>
       </c>
       <c r="L11">
-        <v>0.6192468935644087</v>
+        <v>0.1999369474772337</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2088611570516647</v>
       </c>
       <c r="N11">
-        <v>0.8253960995555474</v>
+        <v>0.676437020557799</v>
       </c>
       <c r="O11">
-        <v>56.45524769790899</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.7677892075820125</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>56.13669610436352</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1608475853337268</v>
+        <v>0.2128603577780552</v>
       </c>
       <c r="D12">
-        <v>0.1226269829126352</v>
+        <v>0.09453678641281726</v>
       </c>
       <c r="E12">
-        <v>0.3709320709442281</v>
+        <v>0.3755148029131945</v>
       </c>
       <c r="F12">
-        <v>0.8254306792417481</v>
+        <v>0.5551127329775412</v>
       </c>
       <c r="G12">
-        <v>1.111428893516489</v>
+        <v>0.9199042368993702</v>
       </c>
       <c r="H12">
-        <v>0.1910630367724693</v>
+        <v>0.165859016835249</v>
       </c>
       <c r="I12">
-        <v>0.1119315238531238</v>
+        <v>0.08073039340550547</v>
       </c>
       <c r="J12">
-        <v>0.5649261368472764</v>
+        <v>0.3029533404364457</v>
       </c>
       <c r="K12">
-        <v>0.6378871130294286</v>
+        <v>0.4008146739191574</v>
       </c>
       <c r="L12">
-        <v>0.7414892148309349</v>
+        <v>0.1698415115456697</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1847870820342052</v>
       </c>
       <c r="N12">
-        <v>0.9688850912021962</v>
+        <v>0.7998369341434142</v>
       </c>
       <c r="O12">
-        <v>58.27598203392984</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.9106562054758456</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>57.92325599928398</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.168729211673309</v>
+        <v>0.2181604250598639</v>
       </c>
       <c r="D13">
-        <v>0.1292911719527865</v>
+        <v>0.1023072856509231</v>
       </c>
       <c r="E13">
-        <v>0.41766649296693</v>
+        <v>0.4215438376859169</v>
       </c>
       <c r="F13">
-        <v>0.6794436059866342</v>
+        <v>0.4540927034277757</v>
       </c>
       <c r="G13">
-        <v>0.9477705257342421</v>
+        <v>0.7902027924783823</v>
       </c>
       <c r="H13">
-        <v>0.2428716302723757</v>
+        <v>0.2187358344744439</v>
       </c>
       <c r="I13">
-        <v>0.1085669712723778</v>
+        <v>0.07862533760629375</v>
       </c>
       <c r="J13">
-        <v>0.4826796271930505</v>
+        <v>0.2627676877978189</v>
       </c>
       <c r="K13">
-        <v>0.5275580784107348</v>
+        <v>0.3306700344758795</v>
       </c>
       <c r="L13">
-        <v>0.8486314188969288</v>
+        <v>0.1462011267465613</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1548482250293759</v>
       </c>
       <c r="N13">
-        <v>1.08618544352214</v>
+        <v>0.9045672895377663</v>
       </c>
       <c r="O13">
-        <v>57.85251576238585</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1.029012037516992</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>57.51463221781393</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1728392019721952</v>
+        <v>0.2199879232921518</v>
       </c>
       <c r="D14">
-        <v>0.1323578672733419</v>
+        <v>0.1075171105777883</v>
       </c>
       <c r="E14">
-        <v>0.446951146375504</v>
+        <v>0.4506722485403643</v>
       </c>
       <c r="F14">
-        <v>0.5712075113500461</v>
+        <v>0.385248323339674</v>
       </c>
       <c r="G14">
-        <v>0.8194351162585747</v>
+        <v>0.6799184618429734</v>
       </c>
       <c r="H14">
-        <v>0.2836855978251407</v>
+        <v>0.2615995176609687</v>
       </c>
       <c r="I14">
-        <v>0.101237800651325</v>
+        <v>0.07382259827181326</v>
       </c>
       <c r="J14">
-        <v>0.4213357348894391</v>
+        <v>0.2489039588959798</v>
       </c>
       <c r="K14">
-        <v>0.4462993379733362</v>
+        <v>0.2836781715967334</v>
       </c>
       <c r="L14">
-        <v>0.9177246342454737</v>
+        <v>0.1321137076577301</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1314565392134348</v>
       </c>
       <c r="N14">
-        <v>1.156559319695646</v>
+        <v>0.9702352016989266</v>
       </c>
       <c r="O14">
-        <v>56.54594822396103</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1.101173284400232</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>56.23929376022033</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.173248185404816</v>
+        <v>0.219695964206835</v>
       </c>
       <c r="D15">
-        <v>0.1321704278164901</v>
+        <v>0.108449574904526</v>
       </c>
       <c r="E15">
-        <v>0.4515628921327277</v>
+        <v>0.4554129268446587</v>
       </c>
       <c r="F15">
-        <v>0.5395937713794083</v>
+        <v>0.3672464139895411</v>
       </c>
       <c r="G15">
-        <v>0.7793249571325589</v>
+        <v>0.6426880369048433</v>
       </c>
       <c r="H15">
-        <v>0.2912044054558152</v>
+        <v>0.2702379514345523</v>
       </c>
       <c r="I15">
-        <v>0.09716477637576659</v>
+        <v>0.07114505195431597</v>
       </c>
       <c r="J15">
-        <v>0.4034929553995994</v>
+        <v>0.2507382427843083</v>
       </c>
       <c r="K15">
-        <v>0.4226588045445965</v>
+        <v>0.2716324286947653</v>
       </c>
       <c r="L15">
-        <v>0.9296905742916692</v>
+        <v>0.1292435656822022</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1240085551768821</v>
       </c>
       <c r="N15">
-        <v>1.165389909394634</v>
+        <v>0.9807149513824811</v>
       </c>
       <c r="O15">
-        <v>55.75989514269787</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1.110833974323612</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>55.47004947665539</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1636624311314137</v>
+        <v>0.2082150797955933</v>
       </c>
       <c r="D16">
-        <v>0.1239985427177572</v>
+        <v>0.1050544278292875</v>
       </c>
       <c r="E16">
-        <v>0.4228954357025074</v>
+        <v>0.4280794988763859</v>
       </c>
       <c r="F16">
-        <v>0.4979924189838201</v>
+        <v>0.3605168329906689</v>
       </c>
       <c r="G16">
-        <v>0.7080405686188556</v>
+        <v>0.5595166670505449</v>
       </c>
       <c r="H16">
-        <v>0.2518823912707546</v>
+        <v>0.2363965111477881</v>
       </c>
       <c r="I16">
-        <v>0.07625309638525124</v>
+        <v>0.0568912417465004</v>
       </c>
       <c r="J16">
-        <v>0.3826018857077003</v>
+        <v>0.3009079144650144</v>
       </c>
       <c r="K16">
-        <v>0.394390806753826</v>
+        <v>0.2710563572778284</v>
       </c>
       <c r="L16">
-        <v>0.8697483295633504</v>
+        <v>0.1363466516767708</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1097877675056296</v>
       </c>
       <c r="N16">
-        <v>1.081133843427494</v>
+        <v>0.9156691089760045</v>
       </c>
       <c r="O16">
-        <v>51.40407112900743</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1.029282180403357</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>51.19293235623644</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.154117907338744</v>
+        <v>0.197932383053498</v>
       </c>
       <c r="D17">
-        <v>0.1161504919710552</v>
+        <v>0.09915636044527787</v>
       </c>
       <c r="E17">
-        <v>0.3854774004946719</v>
+        <v>0.3913718610622894</v>
       </c>
       <c r="F17">
-        <v>0.5242231499409371</v>
+        <v>0.3918052090570683</v>
       </c>
       <c r="G17">
-        <v>0.7223540809359861</v>
+        <v>0.5582581067550336</v>
       </c>
       <c r="H17">
-        <v>0.1998254282358545</v>
+        <v>0.1870746286781753</v>
       </c>
       <c r="I17">
-        <v>0.06521858521409474</v>
+        <v>0.04921328909429867</v>
       </c>
       <c r="J17">
-        <v>0.3994838981905673</v>
+        <v>0.3435004829164967</v>
       </c>
       <c r="K17">
-        <v>0.4158620816890135</v>
+        <v>0.2950820929094959</v>
       </c>
       <c r="L17">
-        <v>0.787262700151345</v>
+        <v>0.1492725349767667</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1112139148451625</v>
       </c>
       <c r="N17">
-        <v>0.9801432161377477</v>
+        <v>0.8313459980383016</v>
       </c>
       <c r="O17">
-        <v>48.83915193826834</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.9293784376082783</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>48.66557512724376</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1431655270604466</v>
+        <v>0.1874874585864461</v>
       </c>
       <c r="D18">
-        <v>0.1081580259690185</v>
+        <v>0.09152837666717772</v>
       </c>
       <c r="E18">
-        <v>0.3382955367795972</v>
+        <v>0.3447318516387341</v>
       </c>
       <c r="F18">
-        <v>0.6145663169111941</v>
+        <v>0.465548468973175</v>
       </c>
       <c r="G18">
-        <v>0.8144387139645488</v>
+        <v>0.6219404142775886</v>
       </c>
       <c r="H18">
-        <v>0.1401145432079502</v>
+        <v>0.1285838842539349</v>
       </c>
       <c r="I18">
-        <v>0.05972993723682674</v>
+        <v>0.04518865867367161</v>
       </c>
       <c r="J18">
-        <v>0.4521391569210209</v>
+        <v>0.3969004949752559</v>
       </c>
       <c r="K18">
-        <v>0.4856530680901159</v>
+        <v>0.3482821594280949</v>
       </c>
       <c r="L18">
-        <v>0.6804965254233508</v>
+        <v>0.1711851584264288</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1273761911623801</v>
       </c>
       <c r="N18">
-        <v>0.859073016794639</v>
+        <v>0.7247310428113849</v>
       </c>
       <c r="O18">
-        <v>47.40478531836231</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.8080612798617324</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>47.24809600468484</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1340544981564875</v>
+        <v>0.1800427691757847</v>
       </c>
       <c r="D19">
-        <v>0.1002858631085815</v>
+        <v>0.08317677705856141</v>
       </c>
       <c r="E19">
-        <v>0.289920199480278</v>
+        <v>0.2967788630513795</v>
       </c>
       <c r="F19">
-        <v>0.75031974616995</v>
+        <v>0.5693080630087337</v>
       </c>
       <c r="G19">
-        <v>0.9601261689212919</v>
+        <v>0.7283295769506992</v>
       </c>
       <c r="H19">
-        <v>0.09428652739463672</v>
+        <v>0.08280517235171203</v>
       </c>
       <c r="I19">
-        <v>0.05893848975983484</v>
+        <v>0.04456815050957363</v>
       </c>
       <c r="J19">
-        <v>0.5283799415142312</v>
+        <v>0.4582712323154965</v>
       </c>
       <c r="K19">
-        <v>0.5882123634949252</v>
+        <v>0.4208120363980896</v>
       </c>
       <c r="L19">
-        <v>0.571195990348528</v>
+        <v>0.1986921175933389</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1539192269117393</v>
       </c>
       <c r="N19">
-        <v>0.7355989024113256</v>
+        <v>0.6163852402387704</v>
       </c>
       <c r="O19">
-        <v>46.93927917206025</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.6840843092066535</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>46.78484195160172</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1273108999162105</v>
+        <v>0.1779888342035321</v>
       </c>
       <c r="D20">
-        <v>0.09382670463323706</v>
+        <v>0.07402866213078596</v>
       </c>
       <c r="E20">
-        <v>0.2375206835630124</v>
+        <v>0.2448273028445769</v>
       </c>
       <c r="F20">
-        <v>1.022451226918463</v>
+        <v>0.7616007422446245</v>
       </c>
       <c r="G20">
-        <v>1.268616332208239</v>
+        <v>0.964791634279436</v>
       </c>
       <c r="H20">
-        <v>0.08506859381514875</v>
+        <v>0.07025773953749281</v>
       </c>
       <c r="I20">
-        <v>0.07084735123497499</v>
+        <v>0.05268163581754592</v>
       </c>
       <c r="J20">
-        <v>0.6768800063931621</v>
+        <v>0.5422469106200225</v>
       </c>
       <c r="K20">
-        <v>0.7922462949850058</v>
+        <v>0.5527795293865339</v>
       </c>
       <c r="L20">
-        <v>0.4511550714447026</v>
+        <v>0.2423819204738322</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2130713970470879</v>
       </c>
       <c r="N20">
-        <v>0.6087858770698915</v>
+        <v>0.4997595718596557</v>
       </c>
       <c r="O20">
-        <v>49.18695343519192</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.555875329094647</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>48.99329830708132</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1402866543593575</v>
+        <v>0.1952943381555201</v>
       </c>
       <c r="D21">
-        <v>0.1037251947149258</v>
+        <v>0.07536555226992903</v>
       </c>
       <c r="E21">
-        <v>0.2596537530131329</v>
+        <v>0.2656584166093054</v>
       </c>
       <c r="F21">
-        <v>1.198711762550019</v>
+        <v>0.8260013807781377</v>
       </c>
       <c r="G21">
-        <v>1.507670898704049</v>
+        <v>1.219901648988326</v>
       </c>
       <c r="H21">
-        <v>0.1344228558487042</v>
+        <v>0.108919387168102</v>
       </c>
       <c r="I21">
-        <v>0.1098760347244037</v>
+        <v>0.0789436738348126</v>
       </c>
       <c r="J21">
-        <v>0.7701654398177311</v>
+        <v>0.4314755487431654</v>
       </c>
       <c r="K21">
-        <v>0.9200719165358606</v>
+        <v>0.589832038721795</v>
       </c>
       <c r="L21">
-        <v>0.4931091445795772</v>
+        <v>0.2385159461965856</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2569999827670983</v>
       </c>
       <c r="N21">
-        <v>0.6839916515153845</v>
+        <v>0.5516236043217901</v>
       </c>
       <c r="O21">
-        <v>57.0399848370065</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.6275283139858345</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>56.69643340344146</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1485838369472532</v>
+        <v>0.2060960551702635</v>
       </c>
       <c r="D22">
-        <v>0.1109758617691909</v>
+        <v>0.07665609675276386</v>
       </c>
       <c r="E22">
-        <v>0.276885894923339</v>
+        <v>0.2819942392716186</v>
       </c>
       <c r="F22">
-        <v>1.328196008851805</v>
+        <v>0.8732896130298684</v>
       </c>
       <c r="G22">
-        <v>1.680113947390169</v>
+        <v>1.409476984546188</v>
       </c>
       <c r="H22">
-        <v>0.1753306223847102</v>
+        <v>0.1405514875157632</v>
       </c>
       <c r="I22">
-        <v>0.1416914173525097</v>
+        <v>0.09985748100010472</v>
       </c>
       <c r="J22">
-        <v>0.8381854478982405</v>
+        <v>0.3593932227292385</v>
       </c>
       <c r="K22">
-        <v>1.013536477188481</v>
+        <v>0.6168660929395884</v>
       </c>
       <c r="L22">
-        <v>0.5265469460064196</v>
+        <v>0.2354403918703341</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2899334634958208</v>
       </c>
       <c r="N22">
-        <v>0.7448767035137962</v>
+        <v>0.5919346170164488</v>
       </c>
       <c r="O22">
-        <v>62.61447439479804</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.6868174224048857</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>62.12776570209604</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1433412768636231</v>
+        <v>0.2000588012140696</v>
       </c>
       <c r="D23">
-        <v>0.1074440879473713</v>
+        <v>0.0768015499893977</v>
       </c>
       <c r="E23">
-        <v>0.2674994744273036</v>
+        <v>0.2734255342910146</v>
       </c>
       <c r="F23">
-        <v>1.262217299079879</v>
+        <v>0.8559903231473527</v>
       </c>
       <c r="G23">
-        <v>1.592234769154089</v>
+        <v>1.301782657407841</v>
       </c>
       <c r="H23">
-        <v>0.152641975042473</v>
+        <v>0.1231233150286601</v>
       </c>
       <c r="I23">
-        <v>0.1239691665820404</v>
+        <v>0.08818927214674233</v>
       </c>
       <c r="J23">
-        <v>0.8040717549329202</v>
+        <v>0.4147155787199637</v>
       </c>
       <c r="K23">
-        <v>0.9673588464306988</v>
+        <v>0.6091794342425416</v>
       </c>
       <c r="L23">
-        <v>0.507680788450358</v>
+        <v>0.2395687358535952</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2748459882783436</v>
       </c>
       <c r="N23">
-        <v>0.7130628175767839</v>
+        <v>0.5692166017781943</v>
       </c>
       <c r="O23">
-        <v>59.5904231482188</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.6554817391911598</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>59.18649694005495</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1251158826378287</v>
+        <v>0.1754435906883316</v>
       </c>
       <c r="D24">
-        <v>0.09347571502597418</v>
+        <v>0.07361894397025992</v>
       </c>
       <c r="E24">
-        <v>0.2326935044216683</v>
+        <v>0.2400385202499535</v>
       </c>
       <c r="F24">
-        <v>1.046662959750179</v>
+        <v>0.7806260348665717</v>
       </c>
       <c r="G24">
-        <v>1.294943029077473</v>
+        <v>0.9841934838105715</v>
       </c>
       <c r="H24">
-        <v>0.08491693915501486</v>
+        <v>0.070114626343599</v>
       </c>
       <c r="I24">
-        <v>0.07036592894714566</v>
+        <v>0.05212089825142829</v>
       </c>
       <c r="J24">
-        <v>0.6905653661316649</v>
+        <v>0.5541275241807995</v>
       </c>
       <c r="K24">
-        <v>0.8121867000426732</v>
+        <v>0.5675130875764367</v>
       </c>
       <c r="L24">
-        <v>0.4397176752716803</v>
+        <v>0.2479743978295943</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2184766528668973</v>
       </c>
       <c r="N24">
-        <v>0.5987454017512732</v>
+        <v>0.488221664339207</v>
       </c>
       <c r="O24">
-        <v>49.06974749787912</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.5457689092161928</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>48.87688947869174</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1060119049844488</v>
+        <v>0.1418460543650895</v>
       </c>
       <c r="D25">
-        <v>0.07833275897289838</v>
+        <v>0.06367101509218287</v>
       </c>
       <c r="E25">
-        <v>0.1955163189535014</v>
+        <v>0.201113052240963</v>
       </c>
       <c r="F25">
-        <v>0.8759930647777168</v>
+        <v>0.6827368423104616</v>
       </c>
       <c r="G25">
-        <v>1.040403988313813</v>
+        <v>0.796538435374984</v>
       </c>
       <c r="H25">
-        <v>0.03726826098447256</v>
+        <v>0.03150345551400402</v>
       </c>
       <c r="I25">
-        <v>0.03177288307680737</v>
+        <v>0.02479054593507435</v>
       </c>
       <c r="J25">
-        <v>0.5986837121081123</v>
+        <v>0.5199052693101152</v>
       </c>
       <c r="K25">
-        <v>0.6852232051562126</v>
+        <v>0.504423014544976</v>
       </c>
       <c r="L25">
-        <v>0.3684377206005109</v>
+        <v>0.2451896670689919</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1607787626090342</v>
       </c>
       <c r="N25">
-        <v>0.4853549885477833</v>
+        <v>0.405627723420821</v>
       </c>
       <c r="O25">
-        <v>38.9290596970597</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.4412909337911373</v>
       </c>
       <c r="Q25">
+        <v>38.85195295316134</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
